--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DBF793-E245-4A2D-9C9A-7D5B97C914B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D5DBC-0A7B-4D4B-B21D-97E6508BC4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1038" yWindow="-54" windowWidth="22056" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WB_27Aug_Test" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -524,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +716,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -878,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -886,7 +898,7 @@
     <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -898,6 +910,14 @@
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1263,9 +1283,9 @@
   <dimension ref="A1:O263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1273,7 +1293,7 @@
     <col min="1" max="1" width="10.578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.62890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.26171875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7890625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.47265625" style="2" customWidth="1"/>
@@ -1489,46 +1509,48 @@
         <v>51727</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="22">
         <v>22.39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="23">
         <v>1.8859999999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="20">
         <v>1936</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="23">
         <v>5192626.40252</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="20">
         <v>50</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="20">
         <v>10650</v>
       </c>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
@@ -1732,90 +1754,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="20">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="22">
         <v>101.01</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="23">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="20">
         <v>2000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="23">
         <v>3632029.37904</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="20">
         <v>45</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="20">
         <v>52145</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="20">
         <v>262</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="22">
         <v>89.34</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="23">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="20">
         <v>2007</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="23">
         <v>20342510.737500001</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="20">
         <v>41</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="20">
         <v>83841</v>
       </c>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
@@ -1852,171 +1877,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="20">
         <v>26</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
         <v>2</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="22">
         <v>52.3</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="23">
         <v>6.2839999999999998</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="20">
         <v>1986</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="23">
         <v>6434332.4668199997</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="20">
         <v>40</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="20">
         <v>20740</v>
       </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="20">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="22">
         <v>7.63</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="23">
         <v>2.4940000000000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="20">
         <v>1995</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="23">
         <v>3465637.5686499998</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="20">
         <v>38</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="20">
         <v>63038</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="20">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
         <v>2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="22">
         <v>13.44</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="23">
         <v>1.0409999999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="20">
         <v>1994</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="23">
         <v>1991095.1709199999</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="20">
         <v>36</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="20">
         <v>41436</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="20">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="22">
         <v>110.24</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="23">
         <v>2.7949999999999999</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="20">
         <v>1999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="23">
         <v>14883580.310699999</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="20">
         <v>25</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="20">
         <v>41626</v>
       </c>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
@@ -2170,46 +2201,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
+    <row r="23" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="20">
         <v>42</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="22">
         <v>22.321999999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="23">
         <v>7.2880000000000003</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="20">
         <v>1974</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="23">
         <v>2380088.97254</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="20">
         <v>32</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="20">
         <v>51832</v>
       </c>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
@@ -2252,87 +2285,91 @@
         <v>52531</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
+    <row r="25" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="20">
         <v>18</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="22">
         <v>46.21</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="23">
         <v>6.3150000000000004</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="20">
         <v>1887</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="23">
         <v>10358964.5931</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="20">
         <v>30</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="20">
         <v>62930</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
         <v>2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="22">
         <v>13</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="23">
         <v>1.387</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="20">
         <v>1966</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="23">
         <v>1130027.09962</v>
       </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="20">
         <v>29</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="20">
         <v>20729</v>
       </c>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
@@ -2356,8 +2393,8 @@
       <c r="G27" s="2">
         <v>2.9060000000000001</v>
       </c>
-      <c r="H27" s="1">
-        <v>2005</v>
+      <c r="H27" s="19">
+        <v>1984</v>
       </c>
       <c r="I27" s="2">
         <v>11518999.062100001</v>
@@ -2372,89 +2409,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="14">
+    <row r="28" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="20">
         <v>34</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
         <v>2</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="22">
         <v>32.72</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="23">
         <v>1.361</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="20">
         <v>1966</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="23">
         <v>3466522.96313</v>
       </c>
-      <c r="J28" s="14">
-        <v>0</v>
-      </c>
-      <c r="K28" s="14" t="s">
+      <c r="J28" s="20">
+        <v>0</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="20">
         <v>28</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="20">
         <v>83828</v>
       </c>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20">
         <v>41</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
         <v>2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="22">
         <v>4.7300000000000004</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="23">
         <v>2.9140000000000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="20">
         <v>1882</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="23">
         <v>2391775.9980600001</v>
       </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="20">
+        <v>0</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="20">
         <v>22</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="20">
         <v>41422</v>
       </c>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
@@ -2611,46 +2650,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
+    <row r="34" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="20">
         <v>24</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="22">
         <v>8.85</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="23">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="20">
         <v>1965</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="23">
         <v>1010841.85921</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="20">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="20">
         <v>18</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="20">
         <v>20718</v>
       </c>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8">
@@ -2731,46 +2772,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20">
         <v>44</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="1">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20">
         <v>2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="22">
         <v>22.2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="23">
         <v>1.867</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="20">
         <v>1977</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="23">
         <v>4163024.6547500002</v>
       </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="J37" s="20">
+        <v>0</v>
+      </c>
+      <c r="K37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="20">
         <v>16</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="20">
         <v>83716</v>
       </c>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
@@ -2851,48 +2894,48 @@
         <v>10214</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="8">
+    <row r="40" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20">
         <v>49</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
         <v>2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="22">
         <v>61.2</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="23">
         <v>1.857</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="20">
         <v>1871</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="23">
         <v>7799559.6630300004</v>
       </c>
-      <c r="J40" s="8">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="J40" s="20">
+        <v>0</v>
+      </c>
+      <c r="K40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="20">
         <v>13</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="20">
         <v>84513</v>
       </c>
-      <c r="O40" s="8"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
@@ -2935,46 +2978,48 @@
         <v>51724</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
+    <row r="42" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="20">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20">
         <v>2</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="22">
         <v>24.61</v>
       </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+      <c r="H42" s="20">
         <v>2000</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="23">
         <v>880308.03095799999</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J42" s="20">
+        <v>0</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="20">
         <v>10</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="20">
         <v>51610</v>
       </c>
+      <c r="O42" s="20"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
@@ -3017,89 +3062,91 @@
         <v>52309</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8">
+    <row r="44" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
         <v>2</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="22">
         <v>3.69</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="23">
         <v>3.093</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="20">
         <v>1965</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="23">
         <v>1841616.41655</v>
       </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8" t="s">
+      <c r="J44" s="20">
+        <v>0</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="20">
         <v>8</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="20">
         <v>41408</v>
       </c>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1">
+      <c r="O44" s="20"/>
+    </row>
+    <row r="45" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="20">
         <v>51</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="1">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20">
         <v>2</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="22">
         <v>11.53</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="23">
         <v>2.1190000000000002</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="20">
         <v>2001</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="23">
         <v>1409596.54975</v>
       </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="J45" s="20">
+        <v>0</v>
+      </c>
+      <c r="K45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="20">
         <v>7</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="20">
         <v>62907</v>
       </c>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
@@ -3139,46 +3186,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
+    <row r="47" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="20">
         <v>261</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="1">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20">
         <v>2</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="22">
         <v>217.1</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="23">
         <v>5</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="20">
         <v>2000</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="23">
         <v>12257974.2491</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="J47" s="20">
+        <v>0</v>
+      </c>
+      <c r="K47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="20">
         <v>4</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="20">
         <v>52004</v>
       </c>
+      <c r="O47" s="20"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
@@ -3221,48 +3270,50 @@
         <v>83902</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="20">
+        <v>1</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="1">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20">
         <v>2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="22">
         <v>82.75</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="23">
         <v>1.968</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="20">
         <v>2003</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="23">
         <v>4022304.6637800001</v>
       </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="J49" s="20">
+        <v>0</v>
+      </c>
+      <c r="K49" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
+      <c r="M49" s="20">
+        <v>1</v>
+      </c>
+      <c r="N49" s="20">
         <v>52101</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="O49" s="20"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>19</v>
       </c>
@@ -3291,7 +3342,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>29</v>
       </c>
@@ -3320,7 +3371,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>32</v>
       </c>
@@ -3349,7 +3400,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>33</v>
       </c>
@@ -3378,7 +3429,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>36</v>
       </c>
@@ -3407,7 +3458,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>37</v>
       </c>
@@ -3436,7 +3487,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>40</v>
       </c>
@@ -3465,7 +3516,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>45</v>
       </c>
@@ -3494,7 +3545,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>48</v>
       </c>
@@ -3523,7 +3574,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>52</v>
       </c>
@@ -3552,7 +3603,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>53</v>
       </c>
@@ -3581,7 +3632,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -3610,7 +3661,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -3639,7 +3690,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -3668,7 +3719,7 @@
         <v>83600</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>58</v>
       </c>

--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D5DBC-0A7B-4D4B-B21D-97E6508BC4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21CD1E2-1A6A-47A4-8DF6-CF5E593DB0A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,10 +1282,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1394,6 +1394,10 @@
       <c r="N2" s="1">
         <v>10226</v>
       </c>
+      <c r="O2" s="1">
+        <f>SUM(F2:F49)</f>
+        <v>7399.5320000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">

--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021ABA9-1301-4C63-BF50-20BEBDDCED36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66889DB-0626-47A7-9EB6-5E386E1FDEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,12 +755,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -938,7 +932,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -953,7 +947,6 @@
     <xf numFmtId="1" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1321,7 +1314,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1385,13 +1378,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -1400,39 +1393,33 @@
         <v>2</v>
       </c>
       <c r="G2" s="6">
-        <v>82.75</v>
+        <v>22.39</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K2" s="6">
-        <v>2003</v>
+        <v>1936</v>
       </c>
       <c r="L2" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M2" s="6">
-        <v>4022304.6637800001</v>
+        <v>5192626.40252</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -1441,36 +1428,39 @@
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <v>101.01</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="L3" s="6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M3" s="6">
-        <v>3632029.37904</v>
+        <v>12206634.9968</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -1479,39 +1469,36 @@
         <v>2</v>
       </c>
       <c r="G4" s="6">
-        <v>24.61</v>
+        <v>30.39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L4" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M4" s="6">
-        <v>880308.03095799999</v>
+        <v>3039788.0300500002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1520,30 +1507,36 @@
         <v>2</v>
       </c>
       <c r="G5" s="6">
-        <v>42.47</v>
+        <v>1688.4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="L5" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M5" s="6">
-        <v>1173885.89368</v>
+        <v>219023437.13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1555,30 +1548,36 @@
         <v>2</v>
       </c>
       <c r="G6" s="6">
-        <v>104.48</v>
+        <v>101.01</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
       </c>
       <c r="K6" s="6">
         <v>2000</v>
       </c>
       <c r="L6" s="6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M6" s="6">
-        <v>1436201.97263</v>
+        <v>3632029.37904</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1587,30 +1586,33 @@
         <v>2</v>
       </c>
       <c r="G7" s="6">
-        <v>332.13</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
+        <v>89.34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K7" s="6">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="L7" s="6">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M7" s="6">
-        <v>13391770.616</v>
+        <v>20342510.737500001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1619,36 +1621,33 @@
         <v>2</v>
       </c>
       <c r="G8" s="6">
-        <v>1688.4</v>
+        <v>52.3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="L8" s="6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M8" s="6">
-        <v>219023437.13</v>
+        <v>6434332.4668199997</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -1657,39 +1656,33 @@
         <v>2</v>
       </c>
       <c r="G9" s="6">
-        <v>110.24</v>
+        <v>7.63</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="K9" s="6">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="L9" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M9" s="6">
-        <v>14883580.310699999</v>
+        <v>3465637.5686499998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1698,59 +1691,71 @@
         <v>2</v>
       </c>
       <c r="G10" s="6">
-        <v>288.10000000000002</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
+        <v>13.44</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K10" s="6">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="L10" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M10" s="6">
-        <v>11518999.062100001</v>
+        <v>1991095.1709199999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="6">
-        <v>321.2</v>
+        <v>22.321999999999999</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
       </c>
       <c r="K11" s="6">
-        <v>1922</v>
+        <v>1974</v>
       </c>
       <c r="L11" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M11" s="6">
-        <v>17165139.675799999</v>
+        <v>2380088.97254</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1759,27 +1764,36 @@
         <v>2</v>
       </c>
       <c r="G12" s="6">
-        <v>185.11</v>
+        <v>522.76</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
       </c>
       <c r="K12" s="6">
-        <v>1920</v>
+        <v>1927</v>
       </c>
       <c r="L12" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M12" s="6">
-        <v>9858585.9837299995</v>
+        <v>30438234.138700001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1788,109 +1802,103 @@
         <v>2</v>
       </c>
       <c r="G13" s="6">
-        <v>154.80000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K13" s="6">
-        <v>1965</v>
+        <v>1887</v>
       </c>
       <c r="L13" s="6">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M13" s="6">
-        <v>22615617.320099998</v>
+        <v>10358964.5931</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
       </c>
       <c r="G14" s="6">
-        <v>274</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="K14" s="6">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="L14" s="6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6">
-        <v>18026084.625999998</v>
+        <v>1130027.09962</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
       </c>
       <c r="G15" s="6">
-        <v>522.76</v>
+        <v>32.72</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K15" s="6">
-        <v>1927</v>
+        <v>1966</v>
       </c>
       <c r="L15" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M15" s="6">
-        <v>30438234.138700001</v>
+        <v>3466522.96313</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1899,33 +1907,36 @@
         <v>2</v>
       </c>
       <c r="G16" s="6">
-        <v>363.13</v>
+        <v>33.11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
       </c>
       <c r="K16" s="6">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M16" s="6">
-        <v>15926796.4344</v>
+        <v>3403454.6253</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1934,30 +1945,36 @@
         <v>2</v>
       </c>
       <c r="G17" s="6">
-        <v>665.57</v>
+        <v>79.28</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
       <c r="K17" s="6">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="L17" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M17" s="6">
-        <v>22852470.039700001</v>
+        <v>5272414.7437899997</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1966,36 +1983,36 @@
         <v>2</v>
       </c>
       <c r="G18" s="6">
-        <v>266.39999999999998</v>
+        <v>110.24</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
       </c>
       <c r="K18" s="6">
-        <v>1965</v>
+        <v>1999</v>
       </c>
       <c r="L18" s="6">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M18" s="6">
-        <v>12206634.9968</v>
+        <v>14883580.310699999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -2004,56 +2021,71 @@
         <v>2</v>
       </c>
       <c r="G19" s="6">
-        <v>46.21</v>
+        <v>353.75</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="6">
         <v>24</v>
       </c>
-      <c r="K19" s="6">
-        <v>1887</v>
-      </c>
-      <c r="L19" s="6">
-        <v>30</v>
-      </c>
       <c r="M19" s="6">
-        <v>10358964.5931</v>
+        <v>8493674.6534899995</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6">
-        <v>2.2200000000000002</v>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="K20" s="6">
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="L20" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M20" s="6">
-        <v>1510046.6520799999</v>
+        <v>2391775.9980600001</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -2062,36 +2094,36 @@
         <v>2</v>
       </c>
       <c r="G21" s="6">
-        <v>79.28</v>
+        <v>56</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J21" s="6">
         <v>1</v>
       </c>
       <c r="K21" s="6">
-        <v>1977</v>
+        <v>1880</v>
       </c>
       <c r="L21" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M21" s="6">
-        <v>5272414.7437899997</v>
+        <v>7163448.84363</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -2100,36 +2132,33 @@
         <v>2</v>
       </c>
       <c r="G22" s="6">
-        <v>33.11</v>
+        <v>2.74</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K22" s="6">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="L22" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M22" s="6">
-        <v>3403454.6253</v>
+        <v>769356.93798100005</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
@@ -2138,36 +2167,33 @@
         <v>2</v>
       </c>
       <c r="G23" s="6">
-        <v>353.75</v>
+        <v>8.85</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="K23" s="6">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="L23" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M23" s="6">
-        <v>8493674.6534899995</v>
+        <v>1010841.85921</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -2176,36 +2202,33 @@
         <v>2</v>
       </c>
       <c r="G24" s="6">
-        <v>213.38</v>
+        <v>22.2</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K24" s="6">
-        <v>1999</v>
+        <v>1977</v>
       </c>
       <c r="L24" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M24" s="6">
-        <v>8058071.9900500001</v>
+        <v>4163024.6547500002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2214,33 +2237,36 @@
         <v>2</v>
       </c>
       <c r="G25" s="6">
-        <v>8.85</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
       </c>
       <c r="K25" s="6">
         <v>1965</v>
       </c>
       <c r="L25" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M25" s="6">
-        <v>1010841.85921</v>
+        <v>22615617.320099998</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2249,33 +2275,33 @@
         <v>2</v>
       </c>
       <c r="G26" s="6">
-        <v>13</v>
+        <v>61.2</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K26" s="6">
-        <v>1966</v>
+        <v>1871</v>
       </c>
       <c r="L26" s="6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M26" s="6">
-        <v>1130027.09962</v>
+        <v>7799559.6630300004</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -2284,36 +2310,36 @@
         <v>2</v>
       </c>
       <c r="G27" s="6">
-        <v>52.3</v>
+        <v>24.61</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
       </c>
       <c r="K27" s="6">
-        <v>1986</v>
+        <v>2000</v>
       </c>
       <c r="L27" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M27" s="6">
-        <v>6434332.4668199997</v>
+        <v>880308.03095799999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2322,13 +2348,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="6">
-        <v>30.39</v>
+        <v>213.38</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
@@ -2337,21 +2363,21 @@
         <v>1999</v>
       </c>
       <c r="L28" s="6">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M28" s="6">
-        <v>3039788.0300500002</v>
+        <v>8058071.9900500001</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2360,88 +2386,106 @@
         <v>2</v>
       </c>
       <c r="G29" s="6">
-        <v>22.39</v>
+        <v>3.69</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K29" s="6">
-        <v>1936</v>
+        <v>1965</v>
       </c>
       <c r="L29" s="6">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M29" s="6">
-        <v>5192626.40252</v>
+        <v>1841616.41655</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6">
-        <v>1.63</v>
+        <v>11.53</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="K30" s="6">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="L30" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M30" s="6">
-        <v>1063138.8309299999</v>
+        <v>1409596.54975</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
       </c>
       <c r="G31" s="6">
-        <v>72.12</v>
+        <v>217.1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
       </c>
       <c r="K31" s="6">
-        <v>1916</v>
+        <v>2000</v>
       </c>
       <c r="L31" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" s="6">
-        <v>3052956.4588500001</v>
+        <v>12257974.2491</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -2450,73 +2494,109 @@
         <v>2</v>
       </c>
       <c r="G32" s="6">
-        <v>14.34</v>
+        <v>5.71</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="K32" s="6">
-        <v>1989</v>
+        <v>1883</v>
       </c>
       <c r="L32" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="6">
-        <v>1557149.8697200001</v>
+        <v>3600471.40014</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="6">
-        <v>2.21</v>
+        <v>82.75</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
       </c>
       <c r="K33" s="6">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="L33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6">
-        <v>1130590.45575</v>
+        <v>4022304.6637800001</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="6">
-        <v>3.35</v>
+        <v>42.47</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
       </c>
       <c r="K34" s="6">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
       </c>
       <c r="M34" s="6">
-        <v>1358282.1769099999</v>
+        <v>1173885.89368</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2525,33 +2605,30 @@
         <v>2</v>
       </c>
       <c r="G35" s="6">
-        <v>32.72</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>36</v>
+        <v>104.48</v>
       </c>
       <c r="K35" s="6">
-        <v>1966</v>
+        <v>2000</v>
       </c>
       <c r="L35" s="6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6">
-        <v>3466522.96313</v>
+        <v>1436201.97263</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2560,129 +2637,132 @@
         <v>2</v>
       </c>
       <c r="G36" s="6">
-        <v>56</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>37</v>
+        <v>332.13</v>
       </c>
       <c r="J36" s="6">
         <v>1</v>
       </c>
       <c r="K36" s="6">
-        <v>1880</v>
+        <v>2000</v>
       </c>
       <c r="L36" s="6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6">
-        <v>7163448.84363</v>
+        <v>13391770.616</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="6">
-        <v>4.92</v>
+        <v>288.10000000000002</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
       </c>
       <c r="K37" s="6">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
       </c>
       <c r="M37" s="6">
-        <v>1016784.96526</v>
+        <v>11518999.062100001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="6">
-        <v>1.84</v>
+        <v>321.2</v>
       </c>
       <c r="K38" s="6">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="L38" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M38" s="6">
-        <v>1284992.4723</v>
+        <v>17165139.675799999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="6">
         <v>2</v>
       </c>
       <c r="G39" s="6">
-        <v>13.44</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>38</v>
+        <v>185.11</v>
       </c>
       <c r="K39" s="6">
-        <v>1994</v>
+        <v>1920</v>
       </c>
       <c r="L39" s="6">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="M39" s="6">
-        <v>1991095.1709199999</v>
+        <v>9858585.9837299995</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
       </c>
       <c r="G40" s="6">
-        <v>301.61</v>
+        <v>274</v>
       </c>
       <c r="J40" s="6">
         <v>1</v>
@@ -2691,44 +2771,59 @@
         <v>1972</v>
       </c>
       <c r="L40" s="6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="M40" s="6">
-        <v>9959267.4540999997</v>
+        <v>18026084.625999998</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="6">
-        <v>3.71</v>
+        <v>363.13</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1</v>
       </c>
       <c r="K41" s="6">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <v>2008346.87775</v>
+        <v>15926796.4344</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2737,225 +2832,177 @@
         <v>2</v>
       </c>
       <c r="G42" s="6">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>40</v>
+        <v>665.57</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
       </c>
       <c r="K42" s="6">
-        <v>1882</v>
+        <v>1927</v>
       </c>
       <c r="L42" s="6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M42" s="6">
-        <v>2391775.9980600001</v>
+        <v>22852470.039700001</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6">
-        <v>22.321999999999999</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K43" s="6">
-        <v>1974</v>
+        <v>0</v>
       </c>
       <c r="L43" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M43" s="6">
-        <v>2380088.97254</v>
+        <v>1510046.6520799999</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>3.69</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>42</v>
+        <v>1.63</v>
       </c>
       <c r="K44" s="6">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="L44" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M44" s="6">
-        <v>1841616.41655</v>
+        <v>1063138.8309299999</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E45" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6">
         <v>2</v>
       </c>
       <c r="G45" s="6">
-        <v>22.2</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>43</v>
+        <v>72.12</v>
       </c>
       <c r="K45" s="6">
-        <v>1977</v>
+        <v>1916</v>
       </c>
       <c r="L45" s="6">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="M45" s="6">
-        <v>4163024.6547500002</v>
+        <v>3052956.4588500001</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>4.47</v>
+        <v>14.34</v>
       </c>
       <c r="K46" s="6">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <v>2276226.7491700002</v>
+        <v>1557149.8697200001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="6">
-        <v>35</v>
+        <v>2.21</v>
       </c>
       <c r="K47" s="6">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <v>4988151.46349</v>
+        <v>1130590.45575</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>45</v>
+        <v>3.35</v>
       </c>
       <c r="K48" s="6">
-        <v>1883</v>
+        <v>0</v>
       </c>
       <c r="L48" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" s="6">
-        <v>3600471.40014</v>
+        <v>1358282.1769099999</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -2964,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>3.51</v>
+        <v>4.92</v>
       </c>
       <c r="K49" s="6">
         <v>0</v>
@@ -2973,53 +3020,41 @@
         <v>0</v>
       </c>
       <c r="M49" s="6">
-        <v>1612077.54073</v>
+        <v>1016784.96526</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="6">
-        <v>61.2</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>46</v>
+        <v>1.84</v>
       </c>
       <c r="K50" s="6">
-        <v>1871</v>
+        <v>0</v>
       </c>
       <c r="L50" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6">
-        <v>7799559.6630300004</v>
+        <v>1284992.4723</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -3027,60 +3062,51 @@
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="12">
-        <v>1</v>
+      <c r="F51" s="6">
+        <v>2</v>
       </c>
       <c r="G51" s="6">
-        <v>22.76</v>
+        <v>301.61</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1</v>
       </c>
       <c r="K51" s="6">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="L51" s="6">
         <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>3375025.2315000002</v>
+        <v>9959267.4540999997</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>11.53</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>48</v>
+        <v>3.71</v>
       </c>
       <c r="K52" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="L52" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M52" s="6">
-        <v>1409596.54975</v>
+        <v>2008346.87775</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -3089,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="6">
-        <v>1.86</v>
+        <v>4.47</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
@@ -3098,70 +3124,76 @@
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <v>1278129.3802700001</v>
+        <v>2276226.7491700002</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="6">
-        <v>2.87</v>
+        <v>35</v>
       </c>
       <c r="K54" s="6">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
       </c>
       <c r="M54" s="6">
-        <v>992778.37521500001</v>
+        <v>4988151.46349</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="6">
-        <v>7.63</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>49</v>
+        <v>3.51</v>
       </c>
       <c r="K55" s="6">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="L55" s="6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M55" s="6">
-        <v>3465637.5686499998</v>
+        <v>1612077.54073</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -3170,21 +3202,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <v>0.44</v>
+        <v>22.76</v>
       </c>
       <c r="K56" s="6">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
       </c>
       <c r="M56" s="6">
-        <v>138980.91878400001</v>
+        <v>3375025.2315000002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
@@ -3193,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="6">
-        <v>0.37</v>
+        <v>1.86</v>
       </c>
       <c r="K57" s="6">
         <v>0</v>
@@ -3202,12 +3234,12 @@
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <v>106960.645911</v>
+        <v>1278129.3802700001</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
@@ -3216,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <v>0.98</v>
+        <v>2.87</v>
       </c>
       <c r="K58" s="6">
         <v>0</v>
@@ -3225,12 +3257,12 @@
         <v>0</v>
       </c>
       <c r="M58" s="6">
-        <v>252980.516603</v>
+        <v>992778.37521500001</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
@@ -3239,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="6">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="K59" s="6">
         <v>0</v>
@@ -3248,12 +3280,12 @@
         <v>0</v>
       </c>
       <c r="M59" s="6">
-        <v>531712.76555999997</v>
+        <v>138980.91878400001</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -3262,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="6">
-        <v>1.1599999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="K60" s="6">
         <v>0</v>
@@ -3271,12 +3303,12 @@
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <v>379533.96651100001</v>
+        <v>106960.645911</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
@@ -3285,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="6">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="K61" s="6">
         <v>0</v>
@@ -3294,12 +3326,12 @@
         <v>0</v>
       </c>
       <c r="M61" s="6">
-        <v>343043.79585300002</v>
+        <v>252980.516603</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
@@ -3308,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
@@ -3317,12 +3349,12 @@
         <v>0</v>
       </c>
       <c r="M62" s="6">
-        <v>245399.98779899999</v>
+        <v>531712.76555999997</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
@@ -3331,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="6">
-        <v>0.43</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K63" s="6">
         <v>0</v>
@@ -3340,12 +3372,12 @@
         <v>0</v>
       </c>
       <c r="M63" s="6">
-        <v>159741.84028199999</v>
+        <v>379533.96651100001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
@@ -3354,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="6">
-        <v>0.63</v>
+        <v>1.08</v>
       </c>
       <c r="K64" s="6">
         <v>0</v>
@@ -3363,12 +3395,12 @@
         <v>0</v>
       </c>
       <c r="M64" s="6">
-        <v>276888.23466299998</v>
+        <v>343043.79585300002</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
@@ -3377,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="6">
-        <v>0.39</v>
+        <v>1.02</v>
       </c>
       <c r="K65" s="6">
         <v>0</v>
@@ -3386,12 +3418,12 @@
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <v>167631.32775</v>
+        <v>245399.98779899999</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
@@ -3400,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
       <c r="K66" s="6">
         <v>0</v>
@@ -3409,12 +3441,12 @@
         <v>0</v>
       </c>
       <c r="M66" s="6">
-        <v>286663.56129899999</v>
+        <v>159741.84028199999</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
@@ -3423,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="6">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="K67" s="6">
         <v>0</v>
@@ -3432,12 +3464,12 @@
         <v>0</v>
       </c>
       <c r="M67" s="6">
-        <v>190707.13853200001</v>
+        <v>276888.23466299998</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
@@ -3446,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="6">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
@@ -3455,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <v>227812.821211</v>
+        <v>167631.32775</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -3469,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="6">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
@@ -3478,12 +3510,12 @@
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <v>216546.93231800001</v>
+        <v>286663.56129899999</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -3492,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="6">
-        <v>3.25</v>
+        <v>0.4</v>
       </c>
       <c r="K70" s="6">
         <v>0</v>
@@ -3501,12 +3533,12 @@
         <v>0</v>
       </c>
       <c r="M70" s="6">
-        <v>771752.52804100001</v>
+        <v>190707.13853200001</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -3515,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="K71" s="6">
         <v>0</v>
@@ -3524,12 +3556,12 @@
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <v>297382.623089</v>
+        <v>227812.821211</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
@@ -3538,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="6">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="K72" s="6">
         <v>0</v>
@@ -3547,12 +3579,12 @@
         <v>0</v>
       </c>
       <c r="M72" s="6">
-        <v>273275.54058899998</v>
+        <v>216546.93231800001</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
@@ -3561,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="6">
-        <v>0.36</v>
+        <v>3.25</v>
       </c>
       <c r="K73" s="6">
         <v>0</v>
@@ -3570,12 +3602,12 @@
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <v>203171.55566400001</v>
+        <v>771752.52804100001</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
@@ -3584,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="6">
-        <v>0.42</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K74" s="6">
         <v>0</v>
@@ -3593,12 +3625,12 @@
         <v>0</v>
       </c>
       <c r="M74" s="6">
-        <v>190592.21510599999</v>
+        <v>297382.623089</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
@@ -3607,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="6">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="K75" s="6">
         <v>0</v>
@@ -3616,12 +3648,12 @@
         <v>0</v>
       </c>
       <c r="M75" s="6">
-        <v>108773.238878</v>
+        <v>273275.54058899998</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
@@ -3630,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="6">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K76" s="6">
         <v>0</v>
@@ -3639,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="M76" s="6">
-        <v>185205.21672200001</v>
+        <v>203171.55566400001</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
@@ -3653,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="6">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="K77" s="6">
         <v>0</v>
@@ -3662,12 +3694,12 @@
         <v>0</v>
       </c>
       <c r="M77" s="6">
-        <v>267947.814472</v>
+        <v>190592.21510599999</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
@@ -3676,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="6">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="K78" s="6">
         <v>0</v>
@@ -3685,12 +3717,12 @@
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <v>261711.67389199999</v>
+        <v>108773.238878</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
@@ -3699,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="6">
-        <v>2.64</v>
+        <v>0.37</v>
       </c>
       <c r="K79" s="6">
         <v>0</v>
@@ -3708,12 +3740,12 @@
         <v>0</v>
       </c>
       <c r="M79" s="6">
-        <v>768946.84453400003</v>
+        <v>185205.21672200001</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
@@ -3722,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="6">
-        <v>1.68</v>
+        <v>0.92</v>
       </c>
       <c r="K80" s="6">
         <v>0</v>
@@ -3731,12 +3763,12 @@
         <v>0</v>
       </c>
       <c r="M80" s="6">
-        <v>546693.80575399997</v>
+        <v>267947.814472</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
@@ -3745,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="6">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="K81" s="6">
         <v>0</v>
@@ -3754,12 +3786,12 @@
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <v>251209.585662</v>
+        <v>261711.67389199999</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -3768,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="6">
-        <v>0.53</v>
+        <v>2.64</v>
       </c>
       <c r="K82" s="6">
         <v>0</v>
@@ -3777,12 +3809,12 @@
         <v>0</v>
       </c>
       <c r="M82" s="6">
-        <v>143166.89691400001</v>
+        <v>768946.84453400003</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
@@ -3791,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="6">
-        <v>0.3</v>
+        <v>1.68</v>
       </c>
       <c r="K83" s="6">
         <v>0</v>
@@ -3800,12 +3832,12 @@
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <v>108511.346985</v>
+        <v>546693.80575399997</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
@@ -3814,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="6">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="K84" s="6">
         <v>0</v>
@@ -3823,12 +3855,12 @@
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <v>244626.270624</v>
+        <v>251209.585662</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -3837,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="6">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
@@ -3846,12 +3878,12 @@
         <v>0</v>
       </c>
       <c r="M85" s="6">
-        <v>164590.15934700001</v>
+        <v>143166.89691400001</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
@@ -3860,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="K86" s="6">
         <v>0</v>
@@ -3869,12 +3901,12 @@
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <v>182663.531353</v>
+        <v>108511.346985</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
@@ -3883,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="K87" s="6">
         <v>0</v>
@@ -3892,12 +3924,12 @@
         <v>0</v>
       </c>
       <c r="M87" s="6">
-        <v>145769.129946</v>
+        <v>244626.270624</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
@@ -3906,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="6">
-        <v>1.07</v>
+        <v>0.49</v>
       </c>
       <c r="K88" s="6">
         <v>0</v>
@@ -3915,12 +3947,12 @@
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <v>342207.400249</v>
+        <v>164590.15934700001</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
@@ -3929,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="6">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K89" s="6">
         <v>0</v>
@@ -3938,12 +3970,12 @@
         <v>0</v>
       </c>
       <c r="M89" s="6">
-        <v>216151.680895</v>
+        <v>182663.531353</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
@@ -3952,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="6">
-        <v>1.96</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K90" s="6">
         <v>0</v>
@@ -3961,12 +3993,12 @@
         <v>0</v>
       </c>
       <c r="M90" s="6">
-        <v>673291.98380399996</v>
+        <v>145769.129946</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
@@ -3975,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="6">
-        <v>0.62</v>
+        <v>1.07</v>
       </c>
       <c r="K91" s="6">
         <v>0</v>
@@ -3984,12 +4016,12 @@
         <v>0</v>
       </c>
       <c r="M91" s="6">
-        <v>254447.471525</v>
+        <v>342207.400249</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
@@ -3998,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="6">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
@@ -4007,12 +4039,12 @@
         <v>0</v>
       </c>
       <c r="M92" s="6">
-        <v>168428.58785800001</v>
+        <v>216151.680895</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
@@ -4021,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="6">
-        <v>0.93</v>
+        <v>1.96</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
@@ -4030,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <v>265857.14852699998</v>
+        <v>673291.98380399996</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
@@ -4044,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="6">
-        <v>1.9</v>
+        <v>0.62</v>
       </c>
       <c r="K94" s="6">
         <v>0</v>
@@ -4053,12 +4085,12 @@
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <v>671672.03022299998</v>
+        <v>254447.471525</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E95" s="6">
         <v>0</v>
@@ -4067,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="6">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
@@ -4076,12 +4108,12 @@
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <v>256177.162943</v>
+        <v>168428.58785800001</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
@@ -4090,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="6">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="K96" s="6">
         <v>0</v>
@@ -4099,12 +4131,12 @@
         <v>0</v>
       </c>
       <c r="M96" s="6">
-        <v>310385.67397100001</v>
+        <v>265857.14852699998</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
@@ -4113,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="6">
-        <v>0.92</v>
+        <v>1.9</v>
       </c>
       <c r="K97" s="6">
         <v>0</v>
@@ -4122,12 +4154,12 @@
         <v>0</v>
       </c>
       <c r="M97" s="6">
-        <v>231362.702277</v>
+        <v>671672.03022299998</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
@@ -4136,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="K98" s="6">
         <v>0</v>
@@ -4145,12 +4177,12 @@
         <v>0</v>
       </c>
       <c r="M98" s="6">
-        <v>236075.64843199999</v>
+        <v>256177.162943</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
@@ -4159,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="6">
-        <v>0.82</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K99" s="6">
         <v>0</v>
@@ -4168,12 +4200,12 @@
         <v>0</v>
       </c>
       <c r="M99" s="6">
-        <v>273802.77028900001</v>
+        <v>310385.67397100001</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E100" s="6">
         <v>0</v>
@@ -4182,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="6">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="K100" s="6">
         <v>0</v>
@@ -4191,12 +4223,12 @@
         <v>0</v>
       </c>
       <c r="M100" s="6">
-        <v>117083.399731</v>
+        <v>231362.702277</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
@@ -4205,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="6">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K101" s="6">
         <v>0</v>
@@ -4214,12 +4246,12 @@
         <v>0</v>
       </c>
       <c r="M101" s="6">
-        <v>333288.97687800002</v>
+        <v>236075.64843199999</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
@@ -4228,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="6">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="K102" s="6">
         <v>0</v>
@@ -4237,12 +4269,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="6">
-        <v>196829.51856699999</v>
+        <v>273802.77028900001</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
@@ -4260,12 +4292,12 @@
         <v>0</v>
       </c>
       <c r="M103" s="6">
-        <v>98490.126094199994</v>
+        <v>117083.399731</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
@@ -4274,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="6">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -4283,12 +4315,12 @@
         <v>0</v>
       </c>
       <c r="M104" s="6">
-        <v>243142.83407700001</v>
+        <v>333288.97687800002</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E105" s="6">
         <v>0</v>
@@ -4297,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="6">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="K105" s="6">
         <v>0</v>
@@ -4306,12 +4338,12 @@
         <v>0</v>
       </c>
       <c r="M105" s="6">
-        <v>107487.407353</v>
+        <v>196829.51856699999</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -4320,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="6">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="K106" s="6">
         <v>0</v>
@@ -4329,12 +4361,12 @@
         <v>0</v>
       </c>
       <c r="M106" s="6">
-        <v>145029.027768</v>
+        <v>98490.126094199994</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
@@ -4343,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="6">
-        <v>0.26</v>
+        <v>0.72</v>
       </c>
       <c r="K107" s="6">
         <v>0</v>
@@ -4352,12 +4384,12 @@
         <v>0</v>
       </c>
       <c r="M107" s="6">
-        <v>143201.390697</v>
+        <v>243142.83407700001</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
@@ -4366,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="6">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="K108" s="6">
         <v>0</v>
@@ -4375,12 +4407,12 @@
         <v>0</v>
       </c>
       <c r="M108" s="6">
-        <v>95262.661852599995</v>
+        <v>107487.407353</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -4389,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="K109" s="6">
         <v>0</v>
@@ -4398,12 +4430,12 @@
         <v>0</v>
       </c>
       <c r="M109" s="6">
-        <v>160128.16270700001</v>
+        <v>145029.027768</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E110" s="6">
         <v>0</v>
@@ -4412,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="6">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="K110" s="6">
         <v>0</v>
@@ -4421,12 +4453,12 @@
         <v>0</v>
       </c>
       <c r="M110" s="6">
-        <v>205137.67380399999</v>
+        <v>143201.390697</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
@@ -4435,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="6">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="K111" s="6">
         <v>0</v>
@@ -4444,12 +4476,12 @@
         <v>0</v>
       </c>
       <c r="M111" s="6">
-        <v>249418.27531900001</v>
+        <v>95262.661852599995</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
@@ -4458,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="6">
-        <v>0.94</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K112" s="6">
         <v>0</v>
@@ -4467,12 +4499,12 @@
         <v>0</v>
       </c>
       <c r="M112" s="6">
-        <v>281441.71957000002</v>
+        <v>160128.16270700001</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E113" s="6">
         <v>0</v>
@@ -4481,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="6">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="K113" s="6">
         <v>0</v>
@@ -4490,12 +4522,12 @@
         <v>0</v>
       </c>
       <c r="M113" s="6">
-        <v>151575.09785200001</v>
+        <v>205137.67380399999</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
@@ -4504,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="6">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
       <c r="K114" s="6">
         <v>0</v>
@@ -4513,47 +4545,35 @@
         <v>0</v>
       </c>
       <c r="M114" s="6">
-        <v>474678.62011800002</v>
+        <v>249418.27531900001</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6">
-        <v>115</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="E115" s="6">
         <v>0</v>
       </c>
       <c r="F115" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" s="6">
-        <v>2.74</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>50</v>
+        <v>0.94</v>
       </c>
       <c r="K115" s="6">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="L115" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M115" s="6">
-        <v>769356.93798100005</v>
+        <v>281441.71957000002</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
@@ -4562,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K116" s="6">
         <v>0</v>
@@ -4571,12 +4591,12 @@
         <v>0</v>
       </c>
       <c r="M116" s="6">
-        <v>215226.51371699999</v>
+        <v>151575.09785200001</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E117" s="6">
         <v>0</v>
@@ -4585,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="6">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="K117" s="6">
         <v>0</v>
@@ -4594,12 +4614,12 @@
         <v>0</v>
       </c>
       <c r="M117" s="6">
-        <v>649867.59459899995</v>
+        <v>474678.62011800002</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E118" s="6">
         <v>0</v>
@@ -4608,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="6">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="K118" s="6">
         <v>0</v>
@@ -4617,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="M118" s="6">
-        <v>403580.79258299997</v>
+        <v>215226.51371699999</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E119" s="6">
         <v>0</v>
@@ -4631,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="6">
-        <v>0.87</v>
+        <v>1.56</v>
       </c>
       <c r="K119" s="6">
         <v>0</v>
@@ -4640,12 +4660,12 @@
         <v>0</v>
       </c>
       <c r="M119" s="6">
-        <v>243026.15291</v>
+        <v>649867.59459899995</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
@@ -4654,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="6">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K120" s="6">
         <v>0</v>
@@ -4663,12 +4683,12 @@
         <v>0</v>
       </c>
       <c r="M120" s="6">
-        <v>316886.34509800002</v>
+        <v>403580.79258299997</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E121" s="6">
         <v>0</v>
@@ -4677,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="6">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="K121" s="6">
         <v>0</v>
@@ -4686,12 +4706,12 @@
         <v>0</v>
       </c>
       <c r="M121" s="6">
-        <v>217648.941158</v>
+        <v>243026.15291</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
@@ -4700,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="6">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K122" s="6">
         <v>0</v>
@@ -4709,12 +4729,12 @@
         <v>0</v>
       </c>
       <c r="M122" s="6">
-        <v>157515.13235900001</v>
+        <v>316886.34509800002</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E123" s="6">
         <v>0</v>
@@ -4723,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="6">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="K123" s="6">
         <v>0</v>
@@ -4732,12 +4752,12 @@
         <v>0</v>
       </c>
       <c r="M123" s="6">
-        <v>179571.25627499999</v>
+        <v>217648.941158</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E124" s="6">
         <v>0</v>
@@ -4746,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="6">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="K124" s="6">
         <v>0</v>
@@ -4755,12 +4775,12 @@
         <v>0</v>
       </c>
       <c r="M124" s="6">
-        <v>460290.71371099999</v>
+        <v>157515.13235900001</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E125" s="6">
         <v>0</v>
@@ -4769,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="6">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="K125" s="6">
         <v>0</v>
@@ -4778,12 +4798,12 @@
         <v>0</v>
       </c>
       <c r="M125" s="6">
-        <v>131013.726861</v>
+        <v>179571.25627499999</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E126" s="6">
         <v>0</v>
@@ -4792,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="6">
-        <v>0.71</v>
+        <v>1.05</v>
       </c>
       <c r="K126" s="6">
         <v>0</v>
@@ -4801,12 +4821,12 @@
         <v>0</v>
       </c>
       <c r="M126" s="6">
-        <v>179992.498269</v>
+        <v>460290.71371099999</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E127" s="6">
         <v>0</v>
@@ -4815,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="6">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="K127" s="6">
         <v>0</v>
@@ -4824,12 +4844,12 @@
         <v>0</v>
       </c>
       <c r="M127" s="6">
-        <v>168190.114053</v>
+        <v>131013.726861</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E128" s="6">
         <v>0</v>
@@ -4838,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="K128" s="6">
         <v>0</v>
@@ -4847,12 +4867,12 @@
         <v>0</v>
       </c>
       <c r="M128" s="6">
-        <v>246798.36494299999</v>
+        <v>179992.498269</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E129" s="6">
         <v>0</v>
@@ -4861,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="K129" s="6">
         <v>0</v>
@@ -4870,12 +4890,12 @@
         <v>0</v>
       </c>
       <c r="M129" s="6">
-        <v>129773.62564100001</v>
+        <v>168190.114053</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E130" s="6">
         <v>0</v>
@@ -4884,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="6">
-        <v>0.33</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K130" s="6">
         <v>0</v>
@@ -4893,12 +4913,12 @@
         <v>0</v>
       </c>
       <c r="M130" s="6">
-        <v>160392.520387</v>
+        <v>246798.36494299999</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E131" s="6">
         <v>0</v>
@@ -4907,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="6">
-        <v>1.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K131" s="6">
         <v>0</v>
@@ -4916,12 +4936,12 @@
         <v>0</v>
       </c>
       <c r="M131" s="6">
-        <v>384766.25507700001</v>
+        <v>129773.62564100001</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
@@ -4930,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="6">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="K132" s="6">
         <v>0</v>
@@ -4939,12 +4959,12 @@
         <v>0</v>
       </c>
       <c r="M132" s="6">
-        <v>276872.48297299998</v>
+        <v>160392.520387</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
@@ -4953,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="6">
-        <v>0.7</v>
+        <v>1.33</v>
       </c>
       <c r="K133" s="6">
         <v>0</v>
@@ -4962,12 +4982,12 @@
         <v>0</v>
       </c>
       <c r="M133" s="6">
-        <v>282387.82724299998</v>
+        <v>384766.25507700001</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
@@ -4976,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="6">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="K134" s="6">
         <v>0</v>
@@ -4985,12 +5005,12 @@
         <v>0</v>
       </c>
       <c r="M134" s="6">
-        <v>249038.84888000001</v>
+        <v>276872.48297299998</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
@@ -4999,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="6">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="K135" s="6">
         <v>0</v>
@@ -5008,12 +5028,12 @@
         <v>0</v>
       </c>
       <c r="M135" s="6">
-        <v>259470.95787000001</v>
+        <v>282387.82724299998</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E136" s="6">
         <v>0</v>
@@ -5022,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="6">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="K136" s="6">
         <v>0</v>
@@ -5031,12 +5051,12 @@
         <v>0</v>
       </c>
       <c r="M136" s="6">
-        <v>176232.865234</v>
+        <v>249038.84888000001</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E137" s="6">
         <v>0</v>
@@ -5045,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="6">
-        <v>3.91</v>
+        <v>0.52</v>
       </c>
       <c r="K137" s="6">
         <v>0</v>
@@ -5054,12 +5074,12 @@
         <v>0</v>
       </c>
       <c r="M137" s="6">
-        <v>930899.06333799998</v>
+        <v>259470.95787000001</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E138" s="6">
         <v>0</v>
@@ -5068,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="6">
-        <v>2.1</v>
+        <v>0.36</v>
       </c>
       <c r="K138" s="6">
         <v>0</v>
@@ -5077,12 +5097,12 @@
         <v>0</v>
       </c>
       <c r="M138" s="6">
-        <v>696240.53367399995</v>
+        <v>176232.865234</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E139" s="6">
         <v>0</v>
@@ -5091,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="6">
-        <v>1.07</v>
+        <v>3.91</v>
       </c>
       <c r="K139" s="6">
         <v>0</v>
@@ -5100,12 +5120,12 @@
         <v>0</v>
       </c>
       <c r="M139" s="6">
-        <v>242485.01456499999</v>
+        <v>930899.06333799998</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E140" s="6">
         <v>0</v>
@@ -5114,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="6">
-        <v>0.63</v>
+        <v>2.1</v>
       </c>
       <c r="K140" s="6">
         <v>0</v>
@@ -5123,12 +5143,12 @@
         <v>0</v>
       </c>
       <c r="M140" s="6">
-        <v>292221.09454100003</v>
+        <v>696240.53367399995</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E141" s="6">
         <v>0</v>
@@ -5137,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="6">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="K141" s="6">
         <v>0</v>
@@ -5146,12 +5166,12 @@
         <v>0</v>
       </c>
       <c r="M141" s="6">
-        <v>529325.36410300003</v>
+        <v>242485.01456499999</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E142" s="6">
         <v>0</v>
@@ -5160,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="K142" s="6">
         <v>0</v>
@@ -5169,12 +5189,12 @@
         <v>0</v>
       </c>
       <c r="M142" s="6">
-        <v>208619.54384</v>
+        <v>292221.09454100003</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
@@ -5183,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="6">
-        <v>0.3</v>
+        <v>1.64</v>
       </c>
       <c r="K143" s="6">
         <v>0</v>
@@ -5192,12 +5212,12 @@
         <v>0</v>
       </c>
       <c r="M143" s="6">
-        <v>130329.69919</v>
+        <v>529325.36410300003</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E144" s="6">
         <v>0</v>
@@ -5206,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="6">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="K144" s="6">
         <v>0</v>
@@ -5215,12 +5235,12 @@
         <v>0</v>
       </c>
       <c r="M144" s="6">
-        <v>153185.51705699999</v>
+        <v>208619.54384</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
@@ -5229,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="6">
-        <v>1.52</v>
+        <v>0.3</v>
       </c>
       <c r="K145" s="6">
         <v>0</v>
@@ -5238,12 +5258,12 @@
         <v>0</v>
       </c>
       <c r="M145" s="6">
-        <v>261672.854142</v>
+        <v>130329.69919</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E146" s="6">
         <v>0</v>
@@ -5252,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="6">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="K146" s="6">
         <v>0</v>
@@ -5261,12 +5281,12 @@
         <v>0</v>
       </c>
       <c r="M146" s="6">
-        <v>114701.114162</v>
+        <v>153185.51705699999</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -5275,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="K147" s="6">
         <v>0</v>
@@ -5284,12 +5304,12 @@
         <v>0</v>
       </c>
       <c r="M147" s="6">
-        <v>265821.87476999999</v>
+        <v>261672.854142</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E148" s="6">
         <v>0</v>
@@ -5298,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="6">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="K148" s="6">
         <v>0</v>
@@ -5307,12 +5327,12 @@
         <v>0</v>
       </c>
       <c r="M148" s="6">
-        <v>265612.42688400001</v>
+        <v>114701.114162</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E149" s="6">
         <v>0</v>
@@ -5321,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="6">
-        <v>0.76</v>
+        <v>1.07</v>
       </c>
       <c r="K149" s="6">
         <v>0</v>
@@ -5330,12 +5350,12 @@
         <v>0</v>
       </c>
       <c r="M149" s="6">
-        <v>259983.55598599999</v>
+        <v>265821.87476999999</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
@@ -5344,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="6">
-        <v>0.47</v>
+        <v>0.89</v>
       </c>
       <c r="K150" s="6">
         <v>0</v>
@@ -5353,12 +5373,12 @@
         <v>0</v>
       </c>
       <c r="M150" s="6">
-        <v>249786.68086699999</v>
+        <v>265612.42688400001</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E151" s="6">
         <v>0</v>
@@ -5367,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="6">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="K151" s="6">
         <v>0</v>
@@ -5376,12 +5396,12 @@
         <v>0</v>
       </c>
       <c r="M151" s="6">
-        <v>138695.111038</v>
+        <v>259983.55598599999</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E152" s="6">
         <v>0</v>
@@ -5390,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="6">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="K152" s="6">
         <v>0</v>
@@ -5399,12 +5419,12 @@
         <v>0</v>
       </c>
       <c r="M152" s="6">
-        <v>119771.579535</v>
+        <v>249786.68086699999</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E153" s="6">
         <v>0</v>
@@ -5413,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="6">
-        <v>0.72</v>
+        <v>0.43</v>
       </c>
       <c r="K153" s="6">
         <v>0</v>
@@ -5422,12 +5442,12 @@
         <v>0</v>
       </c>
       <c r="M153" s="6">
-        <v>267647.800987</v>
+        <v>138695.111038</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E154" s="6">
         <v>0</v>
@@ -5436,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="6">
-        <v>0.89</v>
+        <v>0.36</v>
       </c>
       <c r="K154" s="6">
         <v>0</v>
@@ -5445,12 +5465,12 @@
         <v>0</v>
       </c>
       <c r="M154" s="6">
-        <v>301890.854949</v>
+        <v>119771.579535</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
@@ -5459,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="6">
-        <v>2.48</v>
+        <v>0.72</v>
       </c>
       <c r="K155" s="6">
         <v>0</v>
@@ -5468,12 +5488,12 @@
         <v>0</v>
       </c>
       <c r="M155" s="6">
-        <v>956694.69909799995</v>
+        <v>267647.800987</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
@@ -5482,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="6">
-        <v>1.46</v>
+        <v>0.89</v>
       </c>
       <c r="K156" s="6">
         <v>0</v>
@@ -5491,12 +5511,12 @@
         <v>0</v>
       </c>
       <c r="M156" s="6">
-        <v>307837.01124899997</v>
+        <v>301890.854949</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
@@ -5505,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="6">
-        <v>0.35</v>
+        <v>2.48</v>
       </c>
       <c r="K157" s="6">
         <v>0</v>
@@ -5514,12 +5534,12 @@
         <v>0</v>
       </c>
       <c r="M157" s="6">
-        <v>187860.24234699999</v>
+        <v>956694.69909799995</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
@@ -5528,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="6">
-        <v>2.72</v>
+        <v>1.46</v>
       </c>
       <c r="K158" s="6">
         <v>0</v>
@@ -5537,44 +5557,35 @@
         <v>0</v>
       </c>
       <c r="M158" s="6">
-        <v>926065.73872499994</v>
+        <v>307837.01124899997</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6">
-        <v>159</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D159" s="6">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E159" s="6">
         <v>0</v>
       </c>
       <c r="F159" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" s="6">
-        <v>12</v>
+        <v>0.35</v>
       </c>
       <c r="K159" s="6">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="L159" s="6">
         <v>0</v>
       </c>
       <c r="M159" s="6">
-        <v>887956.31197799998</v>
+        <v>187860.24234699999</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E160" s="6">
         <v>0</v>
@@ -5583,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="6">
-        <v>0.46</v>
+        <v>2.72</v>
       </c>
       <c r="K160" s="6">
         <v>0</v>
@@ -5592,35 +5603,44 @@
         <v>0</v>
       </c>
       <c r="M160" s="6">
-        <v>191912.05658400001</v>
+        <v>926065.73872499994</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1</v>
       </c>
       <c r="E161" s="6">
         <v>0</v>
       </c>
       <c r="F161" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="6">
-        <v>0.59</v>
+        <v>12</v>
       </c>
       <c r="K161" s="6">
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="L161" s="6">
         <v>0</v>
       </c>
       <c r="M161" s="6">
-        <v>168961.72609400001</v>
+        <v>887956.31197799998</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E162" s="6">
         <v>0</v>
@@ -5629,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="6">
-        <v>1.44</v>
+        <v>0.46</v>
       </c>
       <c r="K162" s="6">
         <v>0</v>
@@ -5638,12 +5658,12 @@
         <v>0</v>
       </c>
       <c r="M162" s="6">
-        <v>661844.16334199999</v>
+        <v>191912.05658400001</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E163" s="6">
         <v>0</v>
@@ -5652,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="6">
-        <v>0.16</v>
+        <v>0.59</v>
       </c>
       <c r="K163" s="6">
         <v>0</v>
@@ -5661,12 +5681,12 @@
         <v>0</v>
       </c>
       <c r="M163" s="6">
-        <v>97930.331151699997</v>
+        <v>168961.72609400001</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E164" s="6">
         <v>0</v>
@@ -5675,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="6">
-        <v>0.91</v>
+        <v>1.44</v>
       </c>
       <c r="K164" s="6">
         <v>0</v>
@@ -5684,12 +5704,12 @@
         <v>0</v>
       </c>
       <c r="M164" s="6">
-        <v>378684.23080700001</v>
+        <v>661844.16334199999</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E165" s="6">
         <v>0</v>
@@ -5698,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="6">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="K165" s="6">
         <v>0</v>
@@ -5707,12 +5727,12 @@
         <v>0</v>
       </c>
       <c r="M165" s="6">
-        <v>273242.000413</v>
+        <v>97930.331151699997</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E166" s="6">
         <v>0</v>
@@ -5721,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="6">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="K166" s="6">
         <v>0</v>
@@ -5730,12 +5750,12 @@
         <v>0</v>
       </c>
       <c r="M166" s="6">
-        <v>215802.494951</v>
+        <v>378684.23080700001</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E167" s="6">
         <v>0</v>
@@ -5744,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="6">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="K167" s="6">
         <v>0</v>
@@ -5753,12 +5773,12 @@
         <v>0</v>
       </c>
       <c r="M167" s="6">
-        <v>296036.26260000002</v>
+        <v>273242.000413</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E168" s="6">
         <v>0</v>
@@ -5767,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.83</v>
       </c>
       <c r="K168" s="6">
         <v>0</v>
@@ -5776,12 +5796,12 @@
         <v>0</v>
       </c>
       <c r="M168" s="6">
-        <v>181435.43418800001</v>
+        <v>215802.494951</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E169" s="6">
         <v>0</v>
@@ -5790,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="6">
-        <v>2.0299999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="K169" s="6">
         <v>0</v>
@@ -5799,12 +5819,12 @@
         <v>0</v>
       </c>
       <c r="M169" s="6">
-        <v>587001.93196399999</v>
+        <v>296036.26260000002</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E170" s="6">
         <v>0</v>
@@ -5813,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="6">
-        <v>0.31</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K170" s="6">
         <v>0</v>
@@ -5822,12 +5842,12 @@
         <v>0</v>
       </c>
       <c r="M170" s="6">
-        <v>183413.18584399999</v>
+        <v>181435.43418800001</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E171" s="6">
         <v>0</v>
@@ -5836,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="6">
-        <v>0.45</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -5845,12 +5865,12 @@
         <v>0</v>
       </c>
       <c r="M171" s="6">
-        <v>177115.11062799999</v>
+        <v>587001.93196399999</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E172" s="6">
         <v>0</v>
@@ -5859,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="6">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -5868,12 +5888,12 @@
         <v>0</v>
       </c>
       <c r="M172" s="6">
-        <v>117758.853258</v>
+        <v>183413.18584399999</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E173" s="6">
         <v>0</v>
@@ -5882,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="6">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -5891,12 +5911,12 @@
         <v>0</v>
       </c>
       <c r="M173" s="6">
-        <v>386397.785401</v>
+        <v>177115.11062799999</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E174" s="6">
         <v>0</v>
@@ -5905,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="6">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -5914,12 +5934,12 @@
         <v>0</v>
       </c>
       <c r="M174" s="6">
-        <v>314566.80738200003</v>
+        <v>117758.853258</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="6">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E175" s="6">
         <v>0</v>
@@ -5928,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="6">
-        <v>0.32</v>
+        <v>1.01</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -5937,12 +5957,12 @@
         <v>0</v>
       </c>
       <c r="M175" s="6">
-        <v>183443.55138799999</v>
+        <v>386397.785401</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="6">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E176" s="6">
         <v>0</v>
@@ -5951,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="6">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -5960,12 +5980,12 @@
         <v>0</v>
       </c>
       <c r="M176" s="6">
-        <v>288911.72123099997</v>
+        <v>314566.80738200003</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E177" s="6">
         <v>0</v>
@@ -5974,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -5983,12 +6003,12 @@
         <v>0</v>
       </c>
       <c r="M177" s="6">
-        <v>340358.50898300001</v>
+        <v>183443.55138799999</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E178" s="6">
         <v>0</v>
@@ -5997,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="6">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -6006,12 +6026,12 @@
         <v>0</v>
       </c>
       <c r="M178" s="6">
-        <v>376011.53590299998</v>
+        <v>288911.72123099997</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E179" s="6">
         <v>0</v>
@@ -6020,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="6">
-        <v>2.38</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -6029,12 +6049,12 @@
         <v>0</v>
       </c>
       <c r="M179" s="6">
-        <v>615757.46367199998</v>
+        <v>340358.50898300001</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E180" s="6">
         <v>0</v>
@@ -6043,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="6">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -6052,12 +6072,12 @@
         <v>0</v>
       </c>
       <c r="M180" s="6">
-        <v>322690.3247</v>
+        <v>376011.53590299998</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E181" s="6">
         <v>0</v>
@@ -6066,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="6">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -6075,12 +6095,12 @@
         <v>0</v>
       </c>
       <c r="M181" s="6">
-        <v>790451.30120999995</v>
+        <v>615757.46367199998</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E182" s="6">
         <v>0</v>
@@ -6089,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="6">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
@@ -6098,12 +6118,12 @@
         <v>0</v>
       </c>
       <c r="M182" s="6">
-        <v>217532.746254</v>
+        <v>322690.3247</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E183" s="6">
         <v>0</v>
@@ -6112,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="6">
-        <v>0.41</v>
+        <v>1.74</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
@@ -6121,12 +6141,12 @@
         <v>0</v>
       </c>
       <c r="M183" s="6">
-        <v>197053.491304</v>
+        <v>790451.30120999995</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E184" s="6">
         <v>0</v>
@@ -6135,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="6">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
@@ -6144,12 +6164,12 @@
         <v>0</v>
       </c>
       <c r="M184" s="6">
-        <v>305656.12233300001</v>
+        <v>217532.746254</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E185" s="6">
         <v>0</v>
@@ -6158,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="6">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
@@ -6167,12 +6187,12 @@
         <v>0</v>
       </c>
       <c r="M185" s="6">
-        <v>209157.497875</v>
+        <v>197053.491304</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E186" s="6">
         <v>0</v>
@@ -6181,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="6">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
@@ -6190,12 +6210,12 @@
         <v>0</v>
       </c>
       <c r="M186" s="6">
-        <v>125499.49308099999</v>
+        <v>305656.12233300001</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E187" s="6">
         <v>0</v>
@@ -6204,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="6">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
@@ -6213,12 +6233,12 @@
         <v>0</v>
       </c>
       <c r="M187" s="6">
-        <v>191930.28757799999</v>
+        <v>209157.497875</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E188" s="6">
         <v>0</v>
@@ -6227,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="6">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
@@ -6236,12 +6256,12 @@
         <v>0</v>
       </c>
       <c r="M188" s="6">
-        <v>164965.069525</v>
+        <v>125499.49308099999</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E189" s="6">
         <v>0</v>
@@ -6250,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="6">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
@@ -6259,12 +6279,12 @@
         <v>0</v>
       </c>
       <c r="M189" s="6">
-        <v>273807.40020099998</v>
+        <v>191930.28757799999</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E190" s="6">
         <v>0</v>
@@ -6273,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="6">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
@@ -6282,12 +6302,12 @@
         <v>0</v>
       </c>
       <c r="M190" s="6">
-        <v>137703.19680100001</v>
+        <v>164965.069525</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E191" s="6">
         <v>0</v>
@@ -6296,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="6">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
@@ -6305,12 +6325,12 @@
         <v>0</v>
       </c>
       <c r="M191" s="6">
-        <v>159521.050869</v>
+        <v>273807.40020099998</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E192" s="6">
         <v>0</v>
@@ -6319,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="6">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
@@ -6328,12 +6348,12 @@
         <v>0</v>
       </c>
       <c r="M192" s="6">
-        <v>358902.57082800003</v>
+        <v>137703.19680100001</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E193" s="6">
         <v>0</v>
@@ -6342,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="6">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
@@ -6351,12 +6371,12 @@
         <v>0</v>
       </c>
       <c r="M193" s="6">
-        <v>141619.82892500001</v>
+        <v>159521.050869</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E194" s="6">
         <v>0</v>
@@ -6365,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
@@ -6374,12 +6394,12 @@
         <v>0</v>
       </c>
       <c r="M194" s="6">
-        <v>270805.43220899999</v>
+        <v>358902.57082800003</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E195" s="6">
         <v>0</v>
@@ -6388,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="6">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
@@ -6397,12 +6417,12 @@
         <v>0</v>
       </c>
       <c r="M195" s="6">
-        <v>263252.74517800001</v>
+        <v>141619.82892500001</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E196" s="6">
         <v>0</v>
@@ -6411,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="6">
-        <v>0.7</v>
+        <v>1.07</v>
       </c>
       <c r="K196" s="6">
         <v>0</v>
@@ -6420,12 +6440,12 @@
         <v>0</v>
       </c>
       <c r="M196" s="6">
-        <v>350723.13257299998</v>
+        <v>270805.43220899999</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E197" s="6">
         <v>0</v>
@@ -6434,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="6">
-        <v>1.28</v>
+        <v>0.51</v>
       </c>
       <c r="K197" s="6">
         <v>0</v>
@@ -6443,12 +6463,12 @@
         <v>0</v>
       </c>
       <c r="M197" s="6">
-        <v>518829.17550299998</v>
+        <v>263252.74517800001</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E198" s="6">
         <v>0</v>
@@ -6457,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="6">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="K198" s="6">
         <v>0</v>
@@ -6466,12 +6486,12 @@
         <v>0</v>
       </c>
       <c r="M198" s="6">
-        <v>152170.800407</v>
+        <v>350723.13257299998</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E199" s="6">
         <v>0</v>
@@ -6480,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="6">
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="K199" s="6">
         <v>0</v>
@@ -6489,12 +6509,12 @@
         <v>0</v>
       </c>
       <c r="M199" s="6">
-        <v>140101.60056300001</v>
+        <v>518829.17550299998</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E200" s="6">
         <v>0</v>
@@ -6503,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="6">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="K200" s="6">
         <v>0</v>
@@ -6512,12 +6532,12 @@
         <v>0</v>
       </c>
       <c r="M200" s="6">
-        <v>103291.022205</v>
+        <v>152170.800407</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E201" s="6">
         <v>0</v>
@@ -6526,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="6">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
@@ -6535,12 +6555,12 @@
         <v>0</v>
       </c>
       <c r="M201" s="6">
-        <v>207685.12886699999</v>
+        <v>140101.60056300001</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E202" s="6">
         <v>0</v>
@@ -6549,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="6">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
@@ -6558,12 +6578,12 @@
         <v>0</v>
       </c>
       <c r="M202" s="6">
-        <v>227186.28148800001</v>
+        <v>103291.022205</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E203" s="6">
         <v>0</v>
@@ -6572,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="G203" s="6">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
@@ -6581,12 +6601,12 @@
         <v>0</v>
       </c>
       <c r="M203" s="6">
-        <v>150739.30815600001</v>
+        <v>207685.12886699999</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E204" s="6">
         <v>0</v>
@@ -6595,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="6">
-        <v>1.62</v>
+        <v>0.48</v>
       </c>
       <c r="K204" s="6">
         <v>0</v>
@@ -6604,12 +6624,12 @@
         <v>0</v>
       </c>
       <c r="M204" s="6">
-        <v>632530.916784</v>
+        <v>227186.28148800001</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E205" s="6">
         <v>0</v>
@@ -6618,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="6">
-        <v>1.85</v>
+        <v>0.34</v>
       </c>
       <c r="K205" s="6">
         <v>0</v>
@@ -6627,12 +6647,12 @@
         <v>0</v>
       </c>
       <c r="M205" s="6">
-        <v>540104.82346700004</v>
+        <v>150739.30815600001</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E206" s="6">
         <v>0</v>
@@ -6641,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="6">
-        <v>0.23</v>
+        <v>1.62</v>
       </c>
       <c r="K206" s="6">
         <v>0</v>
@@ -6650,12 +6670,12 @@
         <v>0</v>
       </c>
       <c r="M206" s="6">
-        <v>117259.065336</v>
+        <v>632530.916784</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E207" s="6">
         <v>0</v>
@@ -6664,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="6">
-        <v>0.96</v>
+        <v>1.85</v>
       </c>
       <c r="K207" s="6">
         <v>0</v>
@@ -6673,12 +6693,12 @@
         <v>0</v>
       </c>
       <c r="M207" s="6">
-        <v>409477.34774499998</v>
+        <v>540104.82346700004</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E208" s="6">
         <v>0</v>
@@ -6687,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="G208" s="6">
-        <v>1.24</v>
+        <v>0.23</v>
       </c>
       <c r="K208" s="6">
         <v>0</v>
@@ -6696,12 +6716,12 @@
         <v>0</v>
       </c>
       <c r="M208" s="6">
-        <v>579400.79675900005</v>
+        <v>117259.065336</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E209" s="6">
         <v>0</v>
@@ -6710,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="6">
-        <v>0.34</v>
+        <v>0.96</v>
       </c>
       <c r="K209" s="6">
         <v>0</v>
@@ -6719,12 +6739,12 @@
         <v>0</v>
       </c>
       <c r="M209" s="6">
-        <v>148681.84551799999</v>
+        <v>409477.34774499998</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E210" s="6">
         <v>0</v>
@@ -6733,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="6">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="K210" s="6">
         <v>0</v>
@@ -6742,12 +6762,12 @@
         <v>0</v>
       </c>
       <c r="M210" s="6">
-        <v>585051.86756899999</v>
+        <v>579400.79675900005</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E211" s="6">
         <v>0</v>
@@ -6756,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="G211" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="K211" s="6">
         <v>0</v>
@@ -6765,12 +6785,12 @@
         <v>0</v>
       </c>
       <c r="M211" s="6">
-        <v>160052.19985500001</v>
+        <v>148681.84551799999</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="6">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E212" s="6">
         <v>0</v>
@@ -6779,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="6">
-        <v>0.48</v>
+        <v>1.68</v>
       </c>
       <c r="K212" s="6">
         <v>0</v>
@@ -6788,12 +6808,12 @@
         <v>0</v>
       </c>
       <c r="M212" s="6">
-        <v>124859.33564200001</v>
+        <v>585051.86756899999</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E213" s="6">
         <v>0</v>
@@ -6802,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="G213" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K213" s="6">
         <v>0</v>
@@ -6811,12 +6831,12 @@
         <v>0</v>
       </c>
       <c r="M213" s="6">
-        <v>252434.84820400001</v>
+        <v>160052.19985500001</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E214" s="6">
         <v>0</v>
@@ -6825,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="6">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
       <c r="K214" s="6">
         <v>0</v>
@@ -6834,12 +6854,12 @@
         <v>0</v>
       </c>
       <c r="M214" s="6">
-        <v>825423.22590800002</v>
+        <v>124859.33564200001</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E215" s="6">
         <v>0</v>
@@ -6848,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="G215" s="6">
-        <v>3.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K215" s="6">
         <v>0</v>
@@ -6857,12 +6877,12 @@
         <v>0</v>
       </c>
       <c r="M215" s="6">
-        <v>937068.05796899996</v>
+        <v>252434.84820400001</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E216" s="6">
         <v>0</v>
@@ -6871,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="6">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="K216" s="6">
         <v>0</v>
@@ -6880,12 +6900,12 @@
         <v>0</v>
       </c>
       <c r="M216" s="6">
-        <v>610897.21341800003</v>
+        <v>825423.22590800002</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E217" s="6">
         <v>0</v>
@@ -6894,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="G217" s="6">
-        <v>1.41</v>
+        <v>3.36</v>
       </c>
       <c r="K217" s="6">
         <v>0</v>
@@ -6903,12 +6923,12 @@
         <v>0</v>
       </c>
       <c r="M217" s="6">
-        <v>585964.96928800002</v>
+        <v>937068.05796899996</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E218" s="6">
         <v>0</v>
@@ -6917,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="G218" s="6">
-        <v>0.79</v>
+        <v>1.89</v>
       </c>
       <c r="K218" s="6">
         <v>0</v>
@@ -6926,12 +6946,12 @@
         <v>0</v>
       </c>
       <c r="M218" s="6">
-        <v>309654.387162</v>
+        <v>610897.21341800003</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E219" s="6">
         <v>0</v>
@@ -6940,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="6">
-        <v>0.45</v>
+        <v>1.41</v>
       </c>
       <c r="K219" s="6">
         <v>0</v>
@@ -6949,12 +6969,12 @@
         <v>0</v>
       </c>
       <c r="M219" s="6">
-        <v>215636.26431100001</v>
+        <v>585964.96928800002</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E220" s="6">
         <v>0</v>
@@ -6963,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="6">
-        <v>0.41</v>
+        <v>0.79</v>
       </c>
       <c r="K220" s="6">
         <v>0</v>
@@ -6972,12 +6992,12 @@
         <v>0</v>
       </c>
       <c r="M220" s="6">
-        <v>175044.55846299999</v>
+        <v>309654.387162</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E221" s="6">
         <v>0</v>
@@ -6986,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="G221" s="6">
-        <v>1.38</v>
+        <v>0.45</v>
       </c>
       <c r="K221" s="6">
         <v>0</v>
@@ -6995,12 +7015,12 @@
         <v>0</v>
       </c>
       <c r="M221" s="6">
-        <v>571192.050666</v>
+        <v>215636.26431100001</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E222" s="6">
         <v>0</v>
@@ -7009,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="G222" s="6">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="K222" s="6">
         <v>0</v>
@@ -7018,12 +7038,12 @@
         <v>0</v>
       </c>
       <c r="M222" s="6">
-        <v>231166.635626</v>
+        <v>175044.55846299999</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E223" s="6">
         <v>0</v>
@@ -7032,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="G223" s="6">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="K223" s="6">
         <v>0</v>
@@ -7041,12 +7061,12 @@
         <v>0</v>
       </c>
       <c r="M223" s="6">
-        <v>408213.64041699999</v>
+        <v>571192.050666</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E224" s="6">
         <v>0</v>
@@ -7055,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="G224" s="6">
-        <v>1.24</v>
+        <v>0.54</v>
       </c>
       <c r="K224" s="6">
         <v>0</v>
@@ -7064,12 +7084,12 @@
         <v>0</v>
       </c>
       <c r="M224" s="6">
-        <v>512170.309152</v>
+        <v>231166.635626</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E225" s="6">
         <v>0</v>
@@ -7078,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="G225" s="6">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="K225" s="6">
         <v>0</v>
@@ -7087,12 +7107,12 @@
         <v>0</v>
       </c>
       <c r="M225" s="6">
-        <v>209261.30485399999</v>
+        <v>408213.64041699999</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E226" s="6">
         <v>0</v>
@@ -7101,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="G226" s="6">
-        <v>0.28000000000000003</v>
+        <v>1.24</v>
       </c>
       <c r="K226" s="6">
         <v>0</v>
@@ -7110,12 +7130,12 @@
         <v>0</v>
       </c>
       <c r="M226" s="6">
-        <v>154534.33486100001</v>
+        <v>512170.309152</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E227" s="6">
         <v>0</v>
@@ -7124,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="6">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="K227" s="6">
         <v>0</v>
@@ -7133,12 +7153,12 @@
         <v>0</v>
       </c>
       <c r="M227" s="6">
-        <v>257712.04862799999</v>
+        <v>209261.30485399999</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E228" s="6">
         <v>0</v>
@@ -7147,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="G228" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K228" s="6">
         <v>0</v>
@@ -7156,12 +7176,12 @@
         <v>0</v>
       </c>
       <c r="M228" s="6">
-        <v>279690.19312399998</v>
+        <v>154534.33486100001</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E229" s="6">
         <v>0</v>
@@ -7170,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="G229" s="6">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="K229" s="6">
         <v>0</v>
@@ -7179,12 +7199,12 @@
         <v>0</v>
       </c>
       <c r="M229" s="6">
-        <v>201259.82886000001</v>
+        <v>257712.04862799999</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E230" s="6">
         <v>0</v>
@@ -7193,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="6">
-        <v>2.34</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K230" s="6">
         <v>0</v>
@@ -7202,12 +7222,12 @@
         <v>0</v>
       </c>
       <c r="M230" s="6">
-        <v>855541.51910499996</v>
+        <v>279690.19312399998</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E231" s="6">
         <v>0</v>
@@ -7216,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="G231" s="6">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="K231" s="6">
         <v>0</v>
@@ -7225,12 +7245,12 @@
         <v>0</v>
       </c>
       <c r="M231" s="6">
-        <v>158053.65481199999</v>
+        <v>201259.82886000001</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E232" s="6">
         <v>0</v>
@@ -7239,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="G232" s="6">
-        <v>0.27</v>
+        <v>2.34</v>
       </c>
       <c r="K232" s="6">
         <v>0</v>
@@ -7248,12 +7268,12 @@
         <v>0</v>
       </c>
       <c r="M232" s="6">
-        <v>125553.129892</v>
+        <v>855541.51910499996</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E233" s="6">
         <v>0</v>
@@ -7262,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="G233" s="6">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="K233" s="6">
         <v>0</v>
@@ -7271,12 +7291,12 @@
         <v>0</v>
       </c>
       <c r="M233" s="6">
-        <v>357807.210471</v>
+        <v>158053.65481199999</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E234" s="6">
         <v>0</v>
@@ -7285,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="6">
-        <v>1.18</v>
+        <v>0.27</v>
       </c>
       <c r="K234" s="6">
         <v>0</v>
@@ -7294,12 +7314,12 @@
         <v>0</v>
       </c>
       <c r="M234" s="6">
-        <v>477462.56150399998</v>
+        <v>125553.129892</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
@@ -7308,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="6">
-        <v>0.34</v>
+        <v>0.97</v>
       </c>
       <c r="K235" s="6">
         <v>0</v>
@@ -7317,12 +7337,12 @@
         <v>0</v>
       </c>
       <c r="M235" s="6">
-        <v>142115.98568499999</v>
+        <v>357807.210471</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="6">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
@@ -7331,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="G236" s="6">
-        <v>0.28999999999999998</v>
+        <v>1.18</v>
       </c>
       <c r="K236" s="6">
         <v>0</v>
@@ -7340,12 +7360,12 @@
         <v>0</v>
       </c>
       <c r="M236" s="6">
-        <v>148951.506203</v>
+        <v>477462.56150399998</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="6">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E237" s="6">
         <v>0</v>
@@ -7354,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="6">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="K237" s="6">
         <v>0</v>
@@ -7363,12 +7383,12 @@
         <v>0</v>
       </c>
       <c r="M237" s="6">
-        <v>182708.06097300001</v>
+        <v>142115.98568499999</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E238" s="6">
         <v>0</v>
@@ -7377,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="6">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K238" s="6">
         <v>0</v>
@@ -7386,12 +7406,12 @@
         <v>0</v>
       </c>
       <c r="M238" s="6">
-        <v>122922.446773</v>
+        <v>148951.506203</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E239" s="6">
         <v>0</v>
@@ -7400,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="6">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="K239" s="6">
         <v>0</v>
@@ -7409,12 +7429,12 @@
         <v>0</v>
       </c>
       <c r="M239" s="6">
-        <v>172110.861404</v>
+        <v>182708.06097300001</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E240" s="6">
         <v>0</v>
@@ -7423,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="G240" s="6">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="K240" s="6">
         <v>0</v>
@@ -7432,12 +7452,12 @@
         <v>0</v>
       </c>
       <c r="M240" s="6">
-        <v>238720.161165</v>
+        <v>122922.446773</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E241" s="6">
         <v>0</v>
@@ -7446,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="G241" s="6">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="K241" s="6">
         <v>0</v>
@@ -7455,12 +7475,12 @@
         <v>0</v>
       </c>
       <c r="M241" s="6">
-        <v>167967.726654</v>
+        <v>172110.861404</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E242" s="6">
         <v>0</v>
@@ -7469,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="6">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="K242" s="6">
         <v>0</v>
@@ -7478,12 +7498,12 @@
         <v>0</v>
       </c>
       <c r="M242" s="6">
-        <v>289052.80012099998</v>
+        <v>238720.161165</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E243" s="6">
         <v>0</v>
@@ -7492,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="G243" s="6">
-        <v>1.5</v>
+        <v>0.41</v>
       </c>
       <c r="K243" s="6">
         <v>0</v>
@@ -7501,12 +7521,12 @@
         <v>0</v>
       </c>
       <c r="M243" s="6">
-        <v>607727.55133000005</v>
+        <v>167967.726654</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E244" s="6">
         <v>0</v>
@@ -7515,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="6">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="K244" s="6">
         <v>0</v>
@@ -7524,12 +7544,12 @@
         <v>0</v>
       </c>
       <c r="M244" s="6">
-        <v>253484.25468799999</v>
+        <v>289052.80012099998</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E245" s="6">
         <v>0</v>
@@ -7538,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="6">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K245" s="6">
         <v>0</v>
@@ -7547,12 +7567,12 @@
         <v>0</v>
       </c>
       <c r="M245" s="6">
-        <v>475132.16367500002</v>
+        <v>607727.55133000005</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E246" s="6">
         <v>0</v>
@@ -7561,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="6">
-        <v>1.68</v>
+        <v>0.52</v>
       </c>
       <c r="K246" s="6">
         <v>0</v>
@@ -7570,12 +7590,12 @@
         <v>0</v>
       </c>
       <c r="M246" s="6">
-        <v>617505.22737400001</v>
+        <v>253484.25468799999</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E247" s="6">
         <v>0</v>
@@ -7584,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="6">
-        <v>0.61</v>
+        <v>1.49</v>
       </c>
       <c r="K247" s="6">
         <v>0</v>
@@ -7593,12 +7613,12 @@
         <v>0</v>
       </c>
       <c r="M247" s="6">
-        <v>250939.35637699999</v>
+        <v>475132.16367500002</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E248" s="6">
         <v>0</v>
@@ -7607,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="6">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="K248" s="6">
         <v>0</v>
@@ -7616,12 +7636,12 @@
         <v>0</v>
       </c>
       <c r="M248" s="6">
-        <v>540793.58003499999</v>
+        <v>617505.22737400001</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E249" s="6">
         <v>0</v>
@@ -7630,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="G249" s="6">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="K249" s="6">
         <v>0</v>
@@ -7639,12 +7659,12 @@
         <v>0</v>
       </c>
       <c r="M249" s="6">
-        <v>224091.584455</v>
+        <v>250939.35637699999</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E250" s="6">
         <v>0</v>
@@ -7653,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="G250" s="6">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="K250" s="6">
         <v>0</v>
@@ -7662,12 +7682,12 @@
         <v>0</v>
       </c>
       <c r="M250" s="6">
-        <v>335001.54282700003</v>
+        <v>540793.58003499999</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E251" s="6">
         <v>0</v>
@@ -7676,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="G251" s="6">
-        <v>1.72</v>
+        <v>0.64</v>
       </c>
       <c r="K251" s="6">
         <v>0</v>
@@ -7685,12 +7705,12 @@
         <v>0</v>
       </c>
       <c r="M251" s="6">
-        <v>548574.89447699999</v>
+        <v>224091.584455</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E252" s="6">
         <v>0</v>
@@ -7699,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="G252" s="6">
-        <v>0.24</v>
+        <v>1.51</v>
       </c>
       <c r="K252" s="6">
         <v>0</v>
@@ -7708,12 +7728,12 @@
         <v>0</v>
       </c>
       <c r="M252" s="6">
-        <v>178869.898808</v>
+        <v>335001.54282700003</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E253" s="6">
         <v>0</v>
@@ -7722,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="6">
-        <v>2.33</v>
+        <v>1.72</v>
       </c>
       <c r="K253" s="6">
         <v>0</v>
@@ -7731,12 +7751,12 @@
         <v>0</v>
       </c>
       <c r="M253" s="6">
-        <v>723528.55987800006</v>
+        <v>548574.89447699999</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E254" s="6">
         <v>0</v>
@@ -7745,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="6">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="K254" s="6">
         <v>0</v>
@@ -7754,12 +7774,12 @@
         <v>0</v>
       </c>
       <c r="M254" s="6">
-        <v>402690.25984499999</v>
+        <v>178869.898808</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E255" s="6">
         <v>0</v>
@@ -7768,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="6">
-        <v>0.71</v>
+        <v>2.33</v>
       </c>
       <c r="K255" s="6">
         <v>0</v>
@@ -7777,12 +7797,12 @@
         <v>0</v>
       </c>
       <c r="M255" s="6">
-        <v>277591.19321900001</v>
+        <v>723528.55987800006</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E256" s="6">
         <v>0</v>
@@ -7791,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="G256" s="6">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="K256" s="6">
         <v>0</v>
@@ -7800,12 +7820,12 @@
         <v>0</v>
       </c>
       <c r="M256" s="6">
-        <v>271808.382789</v>
+        <v>402690.25984499999</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E257" s="6">
         <v>0</v>
@@ -7814,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="G257" s="6">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="K257" s="6">
         <v>0</v>
@@ -7823,12 +7843,12 @@
         <v>0</v>
       </c>
       <c r="M257" s="6">
-        <v>264686.508821</v>
+        <v>277591.19321900001</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E258" s="6">
         <v>0</v>
@@ -7837,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="G258" s="6">
-        <v>1.06</v>
+        <v>0.86</v>
       </c>
       <c r="K258" s="6">
         <v>0</v>
@@ -7846,12 +7866,12 @@
         <v>0</v>
       </c>
       <c r="M258" s="6">
-        <v>382563.829142</v>
+        <v>271808.382789</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E259" s="6">
         <v>0</v>
@@ -7860,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="G259" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="K259" s="6">
         <v>0</v>
@@ -7869,12 +7889,12 @@
         <v>0</v>
       </c>
       <c r="M259" s="6">
-        <v>166235.439686</v>
+        <v>264686.508821</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E260" s="6">
         <v>0</v>
@@ -7883,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="6">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="K260" s="6">
         <v>0</v>
@@ -7892,80 +7912,53 @@
         <v>0</v>
       </c>
       <c r="M260" s="6">
-        <v>355133.42903100001</v>
+        <v>382563.829142</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6">
-        <v>261</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="E261" s="6">
         <v>0</v>
       </c>
       <c r="F261" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G261" s="6">
-        <v>217.1</v>
-      </c>
-      <c r="H261" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I261" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J261" s="6">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="K261" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L261" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M261" s="6">
-        <v>12257974.2491</v>
+        <v>166235.439686</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6">
-        <v>262</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="E262" s="6">
         <v>0</v>
       </c>
       <c r="F262" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G262" s="6">
-        <v>89.34</v>
-      </c>
-      <c r="H262" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>53</v>
+        <v>0.92</v>
       </c>
       <c r="K262" s="6">
-        <v>2007</v>
+        <v>0</v>
       </c>
       <c r="L262" s="6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M262" s="6">
-        <v>20342510.737500001</v>
+        <v>355133.42903100001</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8002,7 +7995,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M263">
-    <sortCondition ref="A1"/>
+    <sortCondition descending="1" ref="L1:L263"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66889DB-0626-47A7-9EB6-5E386E1FDEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284D9E1-0697-456F-B2EB-C1B42CAD1612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3438" yWindow="1212" windowWidth="15198" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waterbodies" sheetId="1" r:id="rId1"/>
@@ -1311,10 +1311,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="F263" sqref="F49:F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2849,88 +2849,109 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="6">
-        <v>2.2200000000000002</v>
+        <v>72.12</v>
       </c>
       <c r="K43" s="6">
-        <v>0</v>
+        <v>1916</v>
       </c>
       <c r="L43" s="6">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="M43" s="6">
-        <v>1510046.6520799999</v>
+        <v>3052956.4588500001</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6">
-        <v>1.63</v>
+        <v>14.34</v>
       </c>
       <c r="K44" s="6">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
       </c>
       <c r="M44" s="6">
-        <v>1063138.8309299999</v>
+        <v>1557149.8697200001</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6">
         <v>2</v>
       </c>
       <c r="G45" s="6">
-        <v>72.12</v>
+        <v>301.61</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1</v>
       </c>
       <c r="K45" s="6">
-        <v>1916</v>
+        <v>1972</v>
       </c>
       <c r="L45" s="6">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="M45" s="6">
-        <v>3052956.4588500001</v>
+        <v>9959267.4540999997</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -2942,67 +2963,85 @@
         <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>14.34</v>
+        <v>35</v>
       </c>
       <c r="K46" s="6">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <v>1557149.8697200001</v>
+        <v>4988151.46349</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6">
-        <v>32</v>
+        <v>159</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="6">
-        <v>2.21</v>
+        <v>12</v>
       </c>
       <c r="K47" s="6">
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <v>1130590.45575</v>
+        <v>887956.31197799998</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6">
-        <v>33</v>
+        <v>263</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>3.35</v>
+        <v>11.53</v>
       </c>
       <c r="K48" s="6">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="L48" s="6">
         <v>0</v>
       </c>
       <c r="M48" s="6">
-        <v>1358282.1769099999</v>
+        <v>1165387.83922</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -3011,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>4.92</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K49" s="6">
         <v>0</v>
@@ -3020,12 +3059,12 @@
         <v>0</v>
       </c>
       <c r="M49" s="6">
-        <v>1016784.96526</v>
+        <v>1510046.6520799999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -3034,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="K50" s="6">
         <v>0</v>
@@ -3043,47 +3082,35 @@
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <v>1284992.4723</v>
+        <v>1063138.8309299999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="6">
-        <v>301.61</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="K51" s="6">
-        <v>1972</v>
+        <v>0</v>
       </c>
       <c r="L51" s="6">
         <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>9959267.4540999997</v>
+        <v>1130590.45575</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -3092,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>3.71</v>
+        <v>3.35</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
@@ -3101,12 +3128,12 @@
         <v>0</v>
       </c>
       <c r="M52" s="6">
-        <v>2008346.87775</v>
+        <v>1358282.1769099999</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -3115,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="6">
-        <v>4.47</v>
+        <v>4.92</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
@@ -3124,44 +3151,35 @@
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <v>2276226.7491700002</v>
+        <v>1016784.96526</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6">
-        <v>46</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="6">
-        <v>35</v>
+        <v>1.84</v>
       </c>
       <c r="K54" s="6">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
       </c>
       <c r="M54" s="6">
-        <v>4988151.46349</v>
+        <v>1284992.4723</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
@@ -3170,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="6">
-        <v>3.51</v>
+        <v>3.71</v>
       </c>
       <c r="K55" s="6">
         <v>0</v>
@@ -3179,21 +3197,12 @@
         <v>0</v>
       </c>
       <c r="M55" s="6">
-        <v>1612077.54073</v>
+        <v>2008346.87775</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6">
-        <v>50</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -3202,21 +3211,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <v>22.76</v>
+        <v>4.47</v>
       </c>
       <c r="K56" s="6">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
       </c>
       <c r="M56" s="6">
-        <v>3375025.2315000002</v>
+        <v>2276226.7491700002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
@@ -3225,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="6">
-        <v>1.86</v>
+        <v>3.51</v>
       </c>
       <c r="K57" s="6">
         <v>0</v>
@@ -3234,12 +3243,21 @@
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <v>1278129.3802700001</v>
+        <v>1612077.54073</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
@@ -3248,21 +3266,21 @@
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <v>2.87</v>
+        <v>22.76</v>
       </c>
       <c r="K58" s="6">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
       </c>
       <c r="M58" s="6">
-        <v>992778.37521500001</v>
+        <v>3375025.2315000002</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
@@ -3271,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="6">
-        <v>0.44</v>
+        <v>1.86</v>
       </c>
       <c r="K59" s="6">
         <v>0</v>
@@ -3280,12 +3298,12 @@
         <v>0</v>
       </c>
       <c r="M59" s="6">
-        <v>138980.91878400001</v>
+        <v>1278129.3802700001</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -3294,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="6">
-        <v>0.37</v>
+        <v>2.87</v>
       </c>
       <c r="K60" s="6">
         <v>0</v>
@@ -3303,12 +3321,12 @@
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <v>106960.645911</v>
+        <v>992778.37521500001</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
@@ -3317,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="6">
-        <v>0.98</v>
+        <v>0.44</v>
       </c>
       <c r="K61" s="6">
         <v>0</v>
@@ -3326,12 +3344,12 @@
         <v>0</v>
       </c>
       <c r="M61" s="6">
-        <v>252980.516603</v>
+        <v>138980.91878400001</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
@@ -3340,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
@@ -3349,12 +3367,12 @@
         <v>0</v>
       </c>
       <c r="M62" s="6">
-        <v>531712.76555999997</v>
+        <v>106960.645911</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
@@ -3363,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="6">
-        <v>1.1599999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K63" s="6">
         <v>0</v>
@@ -3372,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="M63" s="6">
-        <v>379533.96651100001</v>
+        <v>252980.516603</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
@@ -3386,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="6">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="K64" s="6">
         <v>0</v>
@@ -3395,12 +3413,12 @@
         <v>0</v>
       </c>
       <c r="M64" s="6">
-        <v>343043.79585300002</v>
+        <v>531712.76555999997</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
@@ -3409,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="6">
-        <v>1.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K65" s="6">
         <v>0</v>
@@ -3418,12 +3436,12 @@
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <v>245399.98779899999</v>
+        <v>379533.96651100001</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="K66" s="6">
         <v>0</v>
@@ -3441,12 +3459,12 @@
         <v>0</v>
       </c>
       <c r="M66" s="6">
-        <v>159741.84028199999</v>
+        <v>343043.79585300002</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
@@ -3455,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="6">
-        <v>0.63</v>
+        <v>1.02</v>
       </c>
       <c r="K67" s="6">
         <v>0</v>
@@ -3464,12 +3482,12 @@
         <v>0</v>
       </c>
       <c r="M67" s="6">
-        <v>276888.23466299998</v>
+        <v>245399.98779899999</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
@@ -3478,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="6">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
@@ -3487,12 +3505,12 @@
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <v>167631.32775</v>
+        <v>159741.84028199999</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="6">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
@@ -3510,12 +3528,12 @@
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <v>286663.56129899999</v>
+        <v>276888.23466299998</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="6">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K70" s="6">
         <v>0</v>
@@ -3533,12 +3551,12 @@
         <v>0</v>
       </c>
       <c r="M70" s="6">
-        <v>190707.13853200001</v>
+        <v>167631.32775</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="6">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="K71" s="6">
         <v>0</v>
@@ -3556,12 +3574,12 @@
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <v>227812.821211</v>
+        <v>286663.56129899999</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="6">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="K72" s="6">
         <v>0</v>
@@ -3579,12 +3597,12 @@
         <v>0</v>
       </c>
       <c r="M72" s="6">
-        <v>216546.93231800001</v>
+        <v>190707.13853200001</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="6">
-        <v>3.25</v>
+        <v>0.87</v>
       </c>
       <c r="K73" s="6">
         <v>0</v>
@@ -3602,12 +3620,12 @@
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <v>771752.52804100001</v>
+        <v>227812.821211</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="K74" s="6">
         <v>0</v>
@@ -3625,12 +3643,12 @@
         <v>0</v>
       </c>
       <c r="M74" s="6">
-        <v>297382.623089</v>
+        <v>216546.93231800001</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="6">
-        <v>0.6</v>
+        <v>3.25</v>
       </c>
       <c r="K75" s="6">
         <v>0</v>
@@ -3648,12 +3666,12 @@
         <v>0</v>
       </c>
       <c r="M75" s="6">
-        <v>273275.54058899998</v>
+        <v>771752.52804100001</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="6">
-        <v>0.36</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K76" s="6">
         <v>0</v>
@@ -3671,12 +3689,12 @@
         <v>0</v>
       </c>
       <c r="M76" s="6">
-        <v>203171.55566400001</v>
+        <v>297382.623089</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="6">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="K77" s="6">
         <v>0</v>
@@ -3694,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="M77" s="6">
-        <v>190592.21510599999</v>
+        <v>273275.54058899998</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
@@ -3708,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="6">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="K78" s="6">
         <v>0</v>
@@ -3717,12 +3735,12 @@
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <v>108773.238878</v>
+        <v>203171.55566400001</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
@@ -3731,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="6">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="K79" s="6">
         <v>0</v>
@@ -3740,12 +3758,12 @@
         <v>0</v>
       </c>
       <c r="M79" s="6">
-        <v>185205.21672200001</v>
+        <v>190592.21510599999</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="6">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="K80" s="6">
         <v>0</v>
@@ -3763,12 +3781,12 @@
         <v>0</v>
       </c>
       <c r="M80" s="6">
-        <v>267947.814472</v>
+        <v>108773.238878</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
@@ -3777,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="6">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="K81" s="6">
         <v>0</v>
@@ -3786,12 +3804,12 @@
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <v>261711.67389199999</v>
+        <v>185205.21672200001</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="6">
-        <v>2.64</v>
+        <v>0.92</v>
       </c>
       <c r="K82" s="6">
         <v>0</v>
@@ -3809,12 +3827,12 @@
         <v>0</v>
       </c>
       <c r="M82" s="6">
-        <v>768946.84453400003</v>
+        <v>267947.814472</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
@@ -3823,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="6">
-        <v>1.68</v>
+        <v>0.7</v>
       </c>
       <c r="K83" s="6">
         <v>0</v>
@@ -3832,12 +3850,12 @@
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <v>546693.80575399997</v>
+        <v>261711.67389199999</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
@@ -3846,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="6">
-        <v>0.84</v>
+        <v>2.64</v>
       </c>
       <c r="K84" s="6">
         <v>0</v>
@@ -3855,12 +3873,12 @@
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <v>251209.585662</v>
+        <v>768946.84453400003</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -3869,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="6">
-        <v>0.53</v>
+        <v>1.68</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
@@ -3878,12 +3896,12 @@
         <v>0</v>
       </c>
       <c r="M85" s="6">
-        <v>143166.89691400001</v>
+        <v>546693.80575399997</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
@@ -3892,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="6">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="K86" s="6">
         <v>0</v>
@@ -3901,12 +3919,12 @@
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <v>108511.346985</v>
+        <v>251209.585662</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
@@ -3915,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="6">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="K87" s="6">
         <v>0</v>
@@ -3924,12 +3942,12 @@
         <v>0</v>
       </c>
       <c r="M87" s="6">
-        <v>244626.270624</v>
+        <v>143166.89691400001</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="6">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="K88" s="6">
         <v>0</v>
@@ -3947,12 +3965,12 @@
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <v>164590.15934700001</v>
+        <v>108511.346985</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
@@ -3961,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="K89" s="6">
         <v>0</v>
@@ -3970,12 +3988,12 @@
         <v>0</v>
       </c>
       <c r="M89" s="6">
-        <v>182663.531353</v>
+        <v>244626.270624</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="K90" s="6">
         <v>0</v>
@@ -3993,12 +4011,12 @@
         <v>0</v>
       </c>
       <c r="M90" s="6">
-        <v>145769.129946</v>
+        <v>164590.15934700001</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="6">
-        <v>1.07</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K91" s="6">
         <v>0</v>
@@ -4016,12 +4034,12 @@
         <v>0</v>
       </c>
       <c r="M91" s="6">
-        <v>342207.400249</v>
+        <v>182663.531353</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
@@ -4030,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="6">
-        <v>0.76</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
@@ -4039,12 +4057,12 @@
         <v>0</v>
       </c>
       <c r="M92" s="6">
-        <v>216151.680895</v>
+        <v>145769.129946</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
@@ -4053,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="6">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
@@ -4062,12 +4080,12 @@
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <v>673291.98380399996</v>
+        <v>342207.400249</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
@@ -4076,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="6">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="K94" s="6">
         <v>0</v>
@@ -4085,12 +4103,12 @@
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <v>254447.471525</v>
+        <v>216151.680895</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E95" s="6">
         <v>0</v>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="6">
-        <v>0.44</v>
+        <v>1.96</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
@@ -4108,12 +4126,12 @@
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <v>168428.58785800001</v>
+        <v>673291.98380399996</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="6">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="K96" s="6">
         <v>0</v>
@@ -4131,12 +4149,12 @@
         <v>0</v>
       </c>
       <c r="M96" s="6">
-        <v>265857.14852699998</v>
+        <v>254447.471525</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="6">
-        <v>1.9</v>
+        <v>0.44</v>
       </c>
       <c r="K97" s="6">
         <v>0</v>
@@ -4154,12 +4172,12 @@
         <v>0</v>
       </c>
       <c r="M97" s="6">
-        <v>671672.03022299998</v>
+        <v>168428.58785800001</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="6">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="K98" s="6">
         <v>0</v>
@@ -4177,12 +4195,12 @@
         <v>0</v>
       </c>
       <c r="M98" s="6">
-        <v>256177.162943</v>
+        <v>265857.14852699998</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
@@ -4191,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="6">
-        <v>1.1100000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="K99" s="6">
         <v>0</v>
@@ -4200,12 +4218,12 @@
         <v>0</v>
       </c>
       <c r="M99" s="6">
-        <v>310385.67397100001</v>
+        <v>671672.03022299998</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E100" s="6">
         <v>0</v>
@@ -4214,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="6">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="K100" s="6">
         <v>0</v>
@@ -4223,12 +4241,12 @@
         <v>0</v>
       </c>
       <c r="M100" s="6">
-        <v>231362.702277</v>
+        <v>256177.162943</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="6">
-        <v>0.55000000000000004</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K101" s="6">
         <v>0</v>
@@ -4246,12 +4264,12 @@
         <v>0</v>
       </c>
       <c r="M101" s="6">
-        <v>236075.64843199999</v>
+        <v>310385.67397100001</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="6">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="K102" s="6">
         <v>0</v>
@@ -4269,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="6">
-        <v>273802.77028900001</v>
+        <v>231362.702277</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="6">
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K103" s="6">
         <v>0</v>
@@ -4292,12 +4310,12 @@
         <v>0</v>
       </c>
       <c r="M103" s="6">
-        <v>117083.399731</v>
+        <v>236075.64843199999</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
@@ -4306,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="6">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -4315,12 +4333,12 @@
         <v>0</v>
       </c>
       <c r="M104" s="6">
-        <v>333288.97687800002</v>
+        <v>273802.77028900001</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E105" s="6">
         <v>0</v>
@@ -4329,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="6">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="K105" s="6">
         <v>0</v>
@@ -4338,12 +4356,12 @@
         <v>0</v>
       </c>
       <c r="M105" s="6">
-        <v>196829.51856699999</v>
+        <v>117083.399731</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="6">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K106" s="6">
         <v>0</v>
@@ -4361,12 +4379,12 @@
         <v>0</v>
       </c>
       <c r="M106" s="6">
-        <v>98490.126094199994</v>
+        <v>333288.97687800002</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="6">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="K107" s="6">
         <v>0</v>
@@ -4384,12 +4402,12 @@
         <v>0</v>
       </c>
       <c r="M107" s="6">
-        <v>243142.83407700001</v>
+        <v>196829.51856699999</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
@@ -4407,12 +4425,12 @@
         <v>0</v>
       </c>
       <c r="M108" s="6">
-        <v>107487.407353</v>
+        <v>98490.126094199994</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="6">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="K109" s="6">
         <v>0</v>
@@ -4430,12 +4448,12 @@
         <v>0</v>
       </c>
       <c r="M109" s="6">
-        <v>145029.027768</v>
+        <v>243142.83407700001</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E110" s="6">
         <v>0</v>
@@ -4444,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="6">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="K110" s="6">
         <v>0</v>
@@ -4453,12 +4471,12 @@
         <v>0</v>
       </c>
       <c r="M110" s="6">
-        <v>143201.390697</v>
+        <v>107487.407353</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
@@ -4467,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="6">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="K111" s="6">
         <v>0</v>
@@ -4476,12 +4494,12 @@
         <v>0</v>
       </c>
       <c r="M111" s="6">
-        <v>95262.661852599995</v>
+        <v>145029.027768</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="K112" s="6">
         <v>0</v>
@@ -4499,12 +4517,12 @@
         <v>0</v>
       </c>
       <c r="M112" s="6">
-        <v>160128.16270700001</v>
+        <v>143201.390697</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E113" s="6">
         <v>0</v>
@@ -4513,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="6">
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="K113" s="6">
         <v>0</v>
@@ -4522,12 +4540,12 @@
         <v>0</v>
       </c>
       <c r="M113" s="6">
-        <v>205137.67380399999</v>
+        <v>95262.661852599995</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
@@ -4536,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="6">
-        <v>0.78</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K114" s="6">
         <v>0</v>
@@ -4545,12 +4563,12 @@
         <v>0</v>
       </c>
       <c r="M114" s="6">
-        <v>249418.27531900001</v>
+        <v>160128.16270700001</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E115" s="6">
         <v>0</v>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="6">
-        <v>0.94</v>
+        <v>0.63</v>
       </c>
       <c r="K115" s="6">
         <v>0</v>
@@ -4568,12 +4586,12 @@
         <v>0</v>
       </c>
       <c r="M115" s="6">
-        <v>281441.71957000002</v>
+        <v>205137.67380399999</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="6">
-        <v>0.3</v>
+        <v>0.78</v>
       </c>
       <c r="K116" s="6">
         <v>0</v>
@@ -4591,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="M116" s="6">
-        <v>151575.09785200001</v>
+        <v>249418.27531900001</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E117" s="6">
         <v>0</v>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="6">
-        <v>1.27</v>
+        <v>0.94</v>
       </c>
       <c r="K117" s="6">
         <v>0</v>
@@ -4614,12 +4632,12 @@
         <v>0</v>
       </c>
       <c r="M117" s="6">
-        <v>474678.62011800002</v>
+        <v>281441.71957000002</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E118" s="6">
         <v>0</v>
@@ -4628,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K118" s="6">
         <v>0</v>
@@ -4637,12 +4655,12 @@
         <v>0</v>
       </c>
       <c r="M118" s="6">
-        <v>215226.51371699999</v>
+        <v>151575.09785200001</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E119" s="6">
         <v>0</v>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="6">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="K119" s="6">
         <v>0</v>
@@ -4660,12 +4678,12 @@
         <v>0</v>
       </c>
       <c r="M119" s="6">
-        <v>649867.59459899995</v>
+        <v>474678.62011800002</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="6">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="K120" s="6">
         <v>0</v>
@@ -4683,12 +4701,12 @@
         <v>0</v>
       </c>
       <c r="M120" s="6">
-        <v>403580.79258299997</v>
+        <v>215226.51371699999</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E121" s="6">
         <v>0</v>
@@ -4697,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="6">
-        <v>0.87</v>
+        <v>1.56</v>
       </c>
       <c r="K121" s="6">
         <v>0</v>
@@ -4706,12 +4724,12 @@
         <v>0</v>
       </c>
       <c r="M121" s="6">
-        <v>243026.15291</v>
+        <v>649867.59459899995</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
@@ -4720,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="6">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K122" s="6">
         <v>0</v>
@@ -4729,12 +4747,12 @@
         <v>0</v>
       </c>
       <c r="M122" s="6">
-        <v>316886.34509800002</v>
+        <v>403580.79258299997</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E123" s="6">
         <v>0</v>
@@ -4743,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="6">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="K123" s="6">
         <v>0</v>
@@ -4752,12 +4770,12 @@
         <v>0</v>
       </c>
       <c r="M123" s="6">
-        <v>217648.941158</v>
+        <v>243026.15291</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E124" s="6">
         <v>0</v>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="6">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="K124" s="6">
         <v>0</v>
@@ -4775,12 +4793,12 @@
         <v>0</v>
       </c>
       <c r="M124" s="6">
-        <v>157515.13235900001</v>
+        <v>316886.34509800002</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E125" s="6">
         <v>0</v>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="6">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="K125" s="6">
         <v>0</v>
@@ -4798,12 +4816,12 @@
         <v>0</v>
       </c>
       <c r="M125" s="6">
-        <v>179571.25627499999</v>
+        <v>217648.941158</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E126" s="6">
         <v>0</v>
@@ -4812,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="6">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="K126" s="6">
         <v>0</v>
@@ -4821,12 +4839,12 @@
         <v>0</v>
       </c>
       <c r="M126" s="6">
-        <v>460290.71371099999</v>
+        <v>157515.13235900001</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E127" s="6">
         <v>0</v>
@@ -4835,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="6">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="K127" s="6">
         <v>0</v>
@@ -4844,12 +4862,12 @@
         <v>0</v>
       </c>
       <c r="M127" s="6">
-        <v>131013.726861</v>
+        <v>179571.25627499999</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E128" s="6">
         <v>0</v>
@@ -4858,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="6">
-        <v>0.71</v>
+        <v>1.05</v>
       </c>
       <c r="K128" s="6">
         <v>0</v>
@@ -4867,12 +4885,12 @@
         <v>0</v>
       </c>
       <c r="M128" s="6">
-        <v>179992.498269</v>
+        <v>460290.71371099999</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E129" s="6">
         <v>0</v>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="6">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="K129" s="6">
         <v>0</v>
@@ -4890,12 +4908,12 @@
         <v>0</v>
       </c>
       <c r="M129" s="6">
-        <v>168190.114053</v>
+        <v>131013.726861</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E130" s="6">
         <v>0</v>
@@ -4904,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="K130" s="6">
         <v>0</v>
@@ -4913,12 +4931,12 @@
         <v>0</v>
       </c>
       <c r="M130" s="6">
-        <v>246798.36494299999</v>
+        <v>179992.498269</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E131" s="6">
         <v>0</v>
@@ -4927,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="K131" s="6">
         <v>0</v>
@@ -4936,12 +4954,12 @@
         <v>0</v>
       </c>
       <c r="M131" s="6">
-        <v>129773.62564100001</v>
+        <v>168190.114053</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
@@ -4950,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="6">
-        <v>0.33</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K132" s="6">
         <v>0</v>
@@ -4959,12 +4977,12 @@
         <v>0</v>
       </c>
       <c r="M132" s="6">
-        <v>160392.520387</v>
+        <v>246798.36494299999</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
@@ -4973,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="6">
-        <v>1.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K133" s="6">
         <v>0</v>
@@ -4982,12 +5000,12 @@
         <v>0</v>
       </c>
       <c r="M133" s="6">
-        <v>384766.25507700001</v>
+        <v>129773.62564100001</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
@@ -4996,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="6">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="K134" s="6">
         <v>0</v>
@@ -5005,12 +5023,12 @@
         <v>0</v>
       </c>
       <c r="M134" s="6">
-        <v>276872.48297299998</v>
+        <v>160392.520387</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
@@ -5019,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="6">
-        <v>0.7</v>
+        <v>1.33</v>
       </c>
       <c r="K135" s="6">
         <v>0</v>
@@ -5028,12 +5046,12 @@
         <v>0</v>
       </c>
       <c r="M135" s="6">
-        <v>282387.82724299998</v>
+        <v>384766.25507700001</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E136" s="6">
         <v>0</v>
@@ -5042,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="6">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="K136" s="6">
         <v>0</v>
@@ -5051,12 +5069,12 @@
         <v>0</v>
       </c>
       <c r="M136" s="6">
-        <v>249038.84888000001</v>
+        <v>276872.48297299998</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E137" s="6">
         <v>0</v>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="6">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="K137" s="6">
         <v>0</v>
@@ -5074,12 +5092,12 @@
         <v>0</v>
       </c>
       <c r="M137" s="6">
-        <v>259470.95787000001</v>
+        <v>282387.82724299998</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E138" s="6">
         <v>0</v>
@@ -5088,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="6">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="K138" s="6">
         <v>0</v>
@@ -5097,12 +5115,12 @@
         <v>0</v>
       </c>
       <c r="M138" s="6">
-        <v>176232.865234</v>
+        <v>249038.84888000001</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E139" s="6">
         <v>0</v>
@@ -5111,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="6">
-        <v>3.91</v>
+        <v>0.52</v>
       </c>
       <c r="K139" s="6">
         <v>0</v>
@@ -5120,12 +5138,12 @@
         <v>0</v>
       </c>
       <c r="M139" s="6">
-        <v>930899.06333799998</v>
+        <v>259470.95787000001</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E140" s="6">
         <v>0</v>
@@ -5134,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="6">
-        <v>2.1</v>
+        <v>0.36</v>
       </c>
       <c r="K140" s="6">
         <v>0</v>
@@ -5143,12 +5161,12 @@
         <v>0</v>
       </c>
       <c r="M140" s="6">
-        <v>696240.53367399995</v>
+        <v>176232.865234</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E141" s="6">
         <v>0</v>
@@ -5157,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="6">
-        <v>1.07</v>
+        <v>3.91</v>
       </c>
       <c r="K141" s="6">
         <v>0</v>
@@ -5166,12 +5184,12 @@
         <v>0</v>
       </c>
       <c r="M141" s="6">
-        <v>242485.01456499999</v>
+        <v>930899.06333799998</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E142" s="6">
         <v>0</v>
@@ -5180,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="6">
-        <v>0.63</v>
+        <v>2.1</v>
       </c>
       <c r="K142" s="6">
         <v>0</v>
@@ -5189,12 +5207,12 @@
         <v>0</v>
       </c>
       <c r="M142" s="6">
-        <v>292221.09454100003</v>
+        <v>696240.53367399995</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="6">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="K143" s="6">
         <v>0</v>
@@ -5212,12 +5230,12 @@
         <v>0</v>
       </c>
       <c r="M143" s="6">
-        <v>529325.36410300003</v>
+        <v>242485.01456499999</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E144" s="6">
         <v>0</v>
@@ -5226,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="K144" s="6">
         <v>0</v>
@@ -5235,12 +5253,12 @@
         <v>0</v>
       </c>
       <c r="M144" s="6">
-        <v>208619.54384</v>
+        <v>292221.09454100003</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
@@ -5249,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="6">
-        <v>0.3</v>
+        <v>1.64</v>
       </c>
       <c r="K145" s="6">
         <v>0</v>
@@ -5258,12 +5276,12 @@
         <v>0</v>
       </c>
       <c r="M145" s="6">
-        <v>130329.69919</v>
+        <v>529325.36410300003</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E146" s="6">
         <v>0</v>
@@ -5272,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="6">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="K146" s="6">
         <v>0</v>
@@ -5281,12 +5299,12 @@
         <v>0</v>
       </c>
       <c r="M146" s="6">
-        <v>153185.51705699999</v>
+        <v>208619.54384</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <v>1.52</v>
+        <v>0.3</v>
       </c>
       <c r="K147" s="6">
         <v>0</v>
@@ -5304,12 +5322,12 @@
         <v>0</v>
       </c>
       <c r="M147" s="6">
-        <v>261672.854142</v>
+        <v>130329.69919</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E148" s="6">
         <v>0</v>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="6">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="K148" s="6">
         <v>0</v>
@@ -5327,12 +5345,12 @@
         <v>0</v>
       </c>
       <c r="M148" s="6">
-        <v>114701.114162</v>
+        <v>153185.51705699999</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E149" s="6">
         <v>0</v>
@@ -5341,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="6">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="K149" s="6">
         <v>0</v>
@@ -5350,12 +5368,12 @@
         <v>0</v>
       </c>
       <c r="M149" s="6">
-        <v>265821.87476999999</v>
+        <v>261672.854142</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
@@ -5364,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="6">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="K150" s="6">
         <v>0</v>
@@ -5373,12 +5391,12 @@
         <v>0</v>
       </c>
       <c r="M150" s="6">
-        <v>265612.42688400001</v>
+        <v>114701.114162</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E151" s="6">
         <v>0</v>
@@ -5387,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="6">
-        <v>0.76</v>
+        <v>1.07</v>
       </c>
       <c r="K151" s="6">
         <v>0</v>
@@ -5396,12 +5414,12 @@
         <v>0</v>
       </c>
       <c r="M151" s="6">
-        <v>259983.55598599999</v>
+        <v>265821.87476999999</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E152" s="6">
         <v>0</v>
@@ -5410,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="6">
-        <v>0.47</v>
+        <v>0.89</v>
       </c>
       <c r="K152" s="6">
         <v>0</v>
@@ -5419,12 +5437,12 @@
         <v>0</v>
       </c>
       <c r="M152" s="6">
-        <v>249786.68086699999</v>
+        <v>265612.42688400001</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E153" s="6">
         <v>0</v>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="6">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="K153" s="6">
         <v>0</v>
@@ -5442,12 +5460,12 @@
         <v>0</v>
       </c>
       <c r="M153" s="6">
-        <v>138695.111038</v>
+        <v>259983.55598599999</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E154" s="6">
         <v>0</v>
@@ -5456,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="6">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="K154" s="6">
         <v>0</v>
@@ -5465,12 +5483,12 @@
         <v>0</v>
       </c>
       <c r="M154" s="6">
-        <v>119771.579535</v>
+        <v>249786.68086699999</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
@@ -5479,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="6">
-        <v>0.72</v>
+        <v>0.43</v>
       </c>
       <c r="K155" s="6">
         <v>0</v>
@@ -5488,12 +5506,12 @@
         <v>0</v>
       </c>
       <c r="M155" s="6">
-        <v>267647.800987</v>
+        <v>138695.111038</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="6">
-        <v>0.89</v>
+        <v>0.36</v>
       </c>
       <c r="K156" s="6">
         <v>0</v>
@@ -5511,12 +5529,12 @@
         <v>0</v>
       </c>
       <c r="M156" s="6">
-        <v>301890.854949</v>
+        <v>119771.579535</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
@@ -5525,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="6">
-        <v>2.48</v>
+        <v>0.72</v>
       </c>
       <c r="K157" s="6">
         <v>0</v>
@@ -5534,12 +5552,12 @@
         <v>0</v>
       </c>
       <c r="M157" s="6">
-        <v>956694.69909799995</v>
+        <v>267647.800987</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
@@ -5548,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="6">
-        <v>1.46</v>
+        <v>0.89</v>
       </c>
       <c r="K158" s="6">
         <v>0</v>
@@ -5557,12 +5575,12 @@
         <v>0</v>
       </c>
       <c r="M158" s="6">
-        <v>307837.01124899997</v>
+        <v>301890.854949</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E159" s="6">
         <v>0</v>
@@ -5571,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="6">
-        <v>0.35</v>
+        <v>2.48</v>
       </c>
       <c r="K159" s="6">
         <v>0</v>
@@ -5580,12 +5598,12 @@
         <v>0</v>
       </c>
       <c r="M159" s="6">
-        <v>187860.24234699999</v>
+        <v>956694.69909799995</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E160" s="6">
         <v>0</v>
@@ -5594,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="6">
-        <v>2.72</v>
+        <v>1.46</v>
       </c>
       <c r="K160" s="6">
         <v>0</v>
@@ -5603,44 +5621,35 @@
         <v>0</v>
       </c>
       <c r="M160" s="6">
-        <v>926065.73872499994</v>
+        <v>307837.01124899997</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6">
-        <v>159</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E161" s="6">
         <v>0</v>
       </c>
       <c r="F161" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" s="6">
-        <v>12</v>
+        <v>0.35</v>
       </c>
       <c r="K161" s="6">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="L161" s="6">
         <v>0</v>
       </c>
       <c r="M161" s="6">
-        <v>887956.31197799998</v>
+        <v>187860.24234699999</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E162" s="6">
         <v>0</v>
@@ -5649,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="6">
-        <v>0.46</v>
+        <v>2.72</v>
       </c>
       <c r="K162" s="6">
         <v>0</v>
@@ -5658,12 +5667,12 @@
         <v>0</v>
       </c>
       <c r="M162" s="6">
-        <v>191912.05658400001</v>
+        <v>926065.73872499994</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E163" s="6">
         <v>0</v>
@@ -5672,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="6">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="K163" s="6">
         <v>0</v>
@@ -5681,12 +5690,12 @@
         <v>0</v>
       </c>
       <c r="M163" s="6">
-        <v>168961.72609400001</v>
+        <v>191912.05658400001</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E164" s="6">
         <v>0</v>
@@ -5695,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="6">
-        <v>1.44</v>
+        <v>0.59</v>
       </c>
       <c r="K164" s="6">
         <v>0</v>
@@ -5704,12 +5713,12 @@
         <v>0</v>
       </c>
       <c r="M164" s="6">
-        <v>661844.16334199999</v>
+        <v>168961.72609400001</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E165" s="6">
         <v>0</v>
@@ -5718,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="6">
-        <v>0.16</v>
+        <v>1.44</v>
       </c>
       <c r="K165" s="6">
         <v>0</v>
@@ -5727,12 +5736,12 @@
         <v>0</v>
       </c>
       <c r="M165" s="6">
-        <v>97930.331151699997</v>
+        <v>661844.16334199999</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E166" s="6">
         <v>0</v>
@@ -5741,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="6">
-        <v>0.91</v>
+        <v>0.16</v>
       </c>
       <c r="K166" s="6">
         <v>0</v>
@@ -5750,12 +5759,12 @@
         <v>0</v>
       </c>
       <c r="M166" s="6">
-        <v>378684.23080700001</v>
+        <v>97930.331151699997</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E167" s="6">
         <v>0</v>
@@ -5764,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="6">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="K167" s="6">
         <v>0</v>
@@ -5773,12 +5782,12 @@
         <v>0</v>
       </c>
       <c r="M167" s="6">
-        <v>273242.000413</v>
+        <v>378684.23080700001</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E168" s="6">
         <v>0</v>
@@ -5787,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="6">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="K168" s="6">
         <v>0</v>
@@ -5796,12 +5805,12 @@
         <v>0</v>
       </c>
       <c r="M168" s="6">
-        <v>215802.494951</v>
+        <v>273242.000413</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E169" s="6">
         <v>0</v>
@@ -5810,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="6">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
       <c r="K169" s="6">
         <v>0</v>
@@ -5819,12 +5828,12 @@
         <v>0</v>
       </c>
       <c r="M169" s="6">
-        <v>296036.26260000002</v>
+        <v>215802.494951</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E170" s="6">
         <v>0</v>
@@ -5833,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="6">
-        <v>0.55000000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="K170" s="6">
         <v>0</v>
@@ -5842,12 +5851,12 @@
         <v>0</v>
       </c>
       <c r="M170" s="6">
-        <v>181435.43418800001</v>
+        <v>296036.26260000002</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E171" s="6">
         <v>0</v>
@@ -5856,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="6">
-        <v>2.0299999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -5865,12 +5874,12 @@
         <v>0</v>
       </c>
       <c r="M171" s="6">
-        <v>587001.93196399999</v>
+        <v>181435.43418800001</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E172" s="6">
         <v>0</v>
@@ -5879,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="6">
-        <v>0.31</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -5888,12 +5897,12 @@
         <v>0</v>
       </c>
       <c r="M172" s="6">
-        <v>183413.18584399999</v>
+        <v>587001.93196399999</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E173" s="6">
         <v>0</v>
@@ -5902,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="6">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -5911,12 +5920,12 @@
         <v>0</v>
       </c>
       <c r="M173" s="6">
-        <v>177115.11062799999</v>
+        <v>183413.18584399999</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E174" s="6">
         <v>0</v>
@@ -5925,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="6">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -5934,12 +5943,12 @@
         <v>0</v>
       </c>
       <c r="M174" s="6">
-        <v>117758.853258</v>
+        <v>177115.11062799999</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E175" s="6">
         <v>0</v>
@@ -5948,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="6">
-        <v>1.01</v>
+        <v>0.43</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -5957,12 +5966,12 @@
         <v>0</v>
       </c>
       <c r="M175" s="6">
-        <v>386397.785401</v>
+        <v>117758.853258</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E176" s="6">
         <v>0</v>
@@ -5971,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="6">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -5980,12 +5989,12 @@
         <v>0</v>
       </c>
       <c r="M176" s="6">
-        <v>314566.80738200003</v>
+        <v>386397.785401</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E177" s="6">
         <v>0</v>
@@ -5994,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="6">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -6003,12 +6012,12 @@
         <v>0</v>
       </c>
       <c r="M177" s="6">
-        <v>183443.55138799999</v>
+        <v>314566.80738200003</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E178" s="6">
         <v>0</v>
@@ -6017,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="6">
-        <v>1.01</v>
+        <v>0.32</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -6026,12 +6035,12 @@
         <v>0</v>
       </c>
       <c r="M178" s="6">
-        <v>288911.72123099997</v>
+        <v>183443.55138799999</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E179" s="6">
         <v>0</v>
@@ -6040,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -6049,12 +6058,12 @@
         <v>0</v>
       </c>
       <c r="M179" s="6">
-        <v>340358.50898300001</v>
+        <v>288911.72123099997</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E180" s="6">
         <v>0</v>
@@ -6063,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="6">
-        <v>0.96</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -6072,12 +6081,12 @@
         <v>0</v>
       </c>
       <c r="M180" s="6">
-        <v>376011.53590299998</v>
+        <v>340358.50898300001</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E181" s="6">
         <v>0</v>
@@ -6086,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="6">
-        <v>2.38</v>
+        <v>0.96</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -6095,12 +6104,12 @@
         <v>0</v>
       </c>
       <c r="M181" s="6">
-        <v>615757.46367199998</v>
+        <v>376011.53590299998</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E182" s="6">
         <v>0</v>
@@ -6109,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="6">
-        <v>0.88</v>
+        <v>2.38</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
@@ -6118,12 +6127,12 @@
         <v>0</v>
       </c>
       <c r="M182" s="6">
-        <v>322690.3247</v>
+        <v>615757.46367199998</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E183" s="6">
         <v>0</v>
@@ -6132,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="6">
-        <v>1.74</v>
+        <v>0.88</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
@@ -6141,12 +6150,12 @@
         <v>0</v>
       </c>
       <c r="M183" s="6">
-        <v>790451.30120999995</v>
+        <v>322690.3247</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E184" s="6">
         <v>0</v>
@@ -6155,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="6">
-        <v>0.53</v>
+        <v>1.74</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
@@ -6164,12 +6173,12 @@
         <v>0</v>
       </c>
       <c r="M184" s="6">
-        <v>217532.746254</v>
+        <v>790451.30120999995</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E185" s="6">
         <v>0</v>
@@ -6178,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="6">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
@@ -6187,12 +6196,12 @@
         <v>0</v>
       </c>
       <c r="M185" s="6">
-        <v>197053.491304</v>
+        <v>217532.746254</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E186" s="6">
         <v>0</v>
@@ -6201,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="6">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
@@ -6210,12 +6219,12 @@
         <v>0</v>
       </c>
       <c r="M186" s="6">
-        <v>305656.12233300001</v>
+        <v>197053.491304</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E187" s="6">
         <v>0</v>
@@ -6224,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="6">
-        <v>0.42</v>
+        <v>0.95</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
@@ -6233,12 +6242,12 @@
         <v>0</v>
       </c>
       <c r="M187" s="6">
-        <v>209157.497875</v>
+        <v>305656.12233300001</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E188" s="6">
         <v>0</v>
@@ -6247,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="6">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
@@ -6256,12 +6265,12 @@
         <v>0</v>
       </c>
       <c r="M188" s="6">
-        <v>125499.49308099999</v>
+        <v>209157.497875</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E189" s="6">
         <v>0</v>
@@ -6270,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="6">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
@@ -6279,12 +6288,12 @@
         <v>0</v>
       </c>
       <c r="M189" s="6">
-        <v>191930.28757799999</v>
+        <v>125499.49308099999</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E190" s="6">
         <v>0</v>
@@ -6293,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="6">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
@@ -6302,12 +6311,12 @@
         <v>0</v>
       </c>
       <c r="M190" s="6">
-        <v>164965.069525</v>
+        <v>191930.28757799999</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E191" s="6">
         <v>0</v>
@@ -6316,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="6">
-        <v>0.92</v>
+        <v>0.43</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
@@ -6325,12 +6334,12 @@
         <v>0</v>
       </c>
       <c r="M191" s="6">
-        <v>273807.40020099998</v>
+        <v>164965.069525</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E192" s="6">
         <v>0</v>
@@ -6339,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="6">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
@@ -6348,12 +6357,12 @@
         <v>0</v>
       </c>
       <c r="M192" s="6">
-        <v>137703.19680100001</v>
+        <v>273807.40020099998</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E193" s="6">
         <v>0</v>
@@ -6362,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="6">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
@@ -6371,12 +6380,12 @@
         <v>0</v>
       </c>
       <c r="M193" s="6">
-        <v>159521.050869</v>
+        <v>137703.19680100001</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E194" s="6">
         <v>0</v>
@@ -6385,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
@@ -6394,12 +6403,12 @@
         <v>0</v>
       </c>
       <c r="M194" s="6">
-        <v>358902.57082800003</v>
+        <v>159521.050869</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E195" s="6">
         <v>0</v>
@@ -6408,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="6">
-        <v>0.37</v>
+        <v>0.92</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
@@ -6417,12 +6426,12 @@
         <v>0</v>
       </c>
       <c r="M195" s="6">
-        <v>141619.82892500001</v>
+        <v>358902.57082800003</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E196" s="6">
         <v>0</v>
@@ -6431,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="6">
-        <v>1.07</v>
+        <v>0.37</v>
       </c>
       <c r="K196" s="6">
         <v>0</v>
@@ -6440,12 +6449,12 @@
         <v>0</v>
       </c>
       <c r="M196" s="6">
-        <v>270805.43220899999</v>
+        <v>141619.82892500001</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E197" s="6">
         <v>0</v>
@@ -6454,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="6">
-        <v>0.51</v>
+        <v>1.07</v>
       </c>
       <c r="K197" s="6">
         <v>0</v>
@@ -6463,12 +6472,12 @@
         <v>0</v>
       </c>
       <c r="M197" s="6">
-        <v>263252.74517800001</v>
+        <v>270805.43220899999</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E198" s="6">
         <v>0</v>
@@ -6477,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="6">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="K198" s="6">
         <v>0</v>
@@ -6486,12 +6495,12 @@
         <v>0</v>
       </c>
       <c r="M198" s="6">
-        <v>350723.13257299998</v>
+        <v>263252.74517800001</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E199" s="6">
         <v>0</v>
@@ -6500,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="6">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="K199" s="6">
         <v>0</v>
@@ -6509,12 +6518,12 @@
         <v>0</v>
       </c>
       <c r="M199" s="6">
-        <v>518829.17550299998</v>
+        <v>350723.13257299998</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E200" s="6">
         <v>0</v>
@@ -6523,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="6">
-        <v>0.24</v>
+        <v>1.28</v>
       </c>
       <c r="K200" s="6">
         <v>0</v>
@@ -6532,12 +6541,12 @@
         <v>0</v>
       </c>
       <c r="M200" s="6">
-        <v>152170.800407</v>
+        <v>518829.17550299998</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E201" s="6">
         <v>0</v>
@@ -6546,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="6">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
@@ -6555,12 +6564,12 @@
         <v>0</v>
       </c>
       <c r="M201" s="6">
-        <v>140101.60056300001</v>
+        <v>152170.800407</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E202" s="6">
         <v>0</v>
@@ -6569,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="6">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
@@ -6578,12 +6587,12 @@
         <v>0</v>
       </c>
       <c r="M202" s="6">
-        <v>103291.022205</v>
+        <v>140101.60056300001</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E203" s="6">
         <v>0</v>
@@ -6592,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="G203" s="6">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
@@ -6601,12 +6610,12 @@
         <v>0</v>
       </c>
       <c r="M203" s="6">
-        <v>207685.12886699999</v>
+        <v>103291.022205</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E204" s="6">
         <v>0</v>
@@ -6615,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="K204" s="6">
         <v>0</v>
@@ -6624,12 +6633,12 @@
         <v>0</v>
       </c>
       <c r="M204" s="6">
-        <v>227186.28148800001</v>
+        <v>207685.12886699999</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E205" s="6">
         <v>0</v>
@@ -6638,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="6">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="K205" s="6">
         <v>0</v>
@@ -6647,12 +6656,12 @@
         <v>0</v>
       </c>
       <c r="M205" s="6">
-        <v>150739.30815600001</v>
+        <v>227186.28148800001</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E206" s="6">
         <v>0</v>
@@ -6661,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="6">
-        <v>1.62</v>
+        <v>0.34</v>
       </c>
       <c r="K206" s="6">
         <v>0</v>
@@ -6670,12 +6679,12 @@
         <v>0</v>
       </c>
       <c r="M206" s="6">
-        <v>632530.916784</v>
+        <v>150739.30815600001</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E207" s="6">
         <v>0</v>
@@ -6684,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="6">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K207" s="6">
         <v>0</v>
@@ -6693,12 +6702,12 @@
         <v>0</v>
       </c>
       <c r="M207" s="6">
-        <v>540104.82346700004</v>
+        <v>632530.916784</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E208" s="6">
         <v>0</v>
@@ -6707,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="G208" s="6">
-        <v>0.23</v>
+        <v>1.85</v>
       </c>
       <c r="K208" s="6">
         <v>0</v>
@@ -6716,12 +6725,12 @@
         <v>0</v>
       </c>
       <c r="M208" s="6">
-        <v>117259.065336</v>
+        <v>540104.82346700004</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E209" s="6">
         <v>0</v>
@@ -6730,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="6">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="K209" s="6">
         <v>0</v>
@@ -6739,12 +6748,12 @@
         <v>0</v>
       </c>
       <c r="M209" s="6">
-        <v>409477.34774499998</v>
+        <v>117259.065336</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E210" s="6">
         <v>0</v>
@@ -6753,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="6">
-        <v>1.24</v>
+        <v>0.96</v>
       </c>
       <c r="K210" s="6">
         <v>0</v>
@@ -6762,12 +6771,12 @@
         <v>0</v>
       </c>
       <c r="M210" s="6">
-        <v>579400.79675900005</v>
+        <v>409477.34774499998</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E211" s="6">
         <v>0</v>
@@ -6776,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="G211" s="6">
-        <v>0.34</v>
+        <v>1.24</v>
       </c>
       <c r="K211" s="6">
         <v>0</v>
@@ -6785,12 +6794,12 @@
         <v>0</v>
       </c>
       <c r="M211" s="6">
-        <v>148681.84551799999</v>
+        <v>579400.79675900005</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E212" s="6">
         <v>0</v>
@@ -6799,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="6">
-        <v>1.68</v>
+        <v>0.34</v>
       </c>
       <c r="K212" s="6">
         <v>0</v>
@@ -6808,12 +6817,12 @@
         <v>0</v>
       </c>
       <c r="M212" s="6">
-        <v>585051.86756899999</v>
+        <v>148681.84551799999</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E213" s="6">
         <v>0</v>
@@ -6822,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="G213" s="6">
-        <v>0.28999999999999998</v>
+        <v>1.68</v>
       </c>
       <c r="K213" s="6">
         <v>0</v>
@@ -6831,12 +6840,12 @@
         <v>0</v>
       </c>
       <c r="M213" s="6">
-        <v>160052.19985500001</v>
+        <v>585051.86756899999</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E214" s="6">
         <v>0</v>
@@ -6845,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="6">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K214" s="6">
         <v>0</v>
@@ -6854,12 +6863,12 @@
         <v>0</v>
       </c>
       <c r="M214" s="6">
-        <v>124859.33564200001</v>
+        <v>160052.19985500001</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E215" s="6">
         <v>0</v>
@@ -6868,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="G215" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="K215" s="6">
         <v>0</v>
@@ -6877,12 +6886,12 @@
         <v>0</v>
       </c>
       <c r="M215" s="6">
-        <v>252434.84820400001</v>
+        <v>124859.33564200001</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E216" s="6">
         <v>0</v>
@@ -6891,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="6">
-        <v>1.92</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K216" s="6">
         <v>0</v>
@@ -6900,12 +6909,12 @@
         <v>0</v>
       </c>
       <c r="M216" s="6">
-        <v>825423.22590800002</v>
+        <v>252434.84820400001</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E217" s="6">
         <v>0</v>
@@ -6914,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="G217" s="6">
-        <v>3.36</v>
+        <v>1.92</v>
       </c>
       <c r="K217" s="6">
         <v>0</v>
@@ -6923,12 +6932,12 @@
         <v>0</v>
       </c>
       <c r="M217" s="6">
-        <v>937068.05796899996</v>
+        <v>825423.22590800002</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E218" s="6">
         <v>0</v>
@@ -6937,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="G218" s="6">
-        <v>1.89</v>
+        <v>3.36</v>
       </c>
       <c r="K218" s="6">
         <v>0</v>
@@ -6946,12 +6955,12 @@
         <v>0</v>
       </c>
       <c r="M218" s="6">
-        <v>610897.21341800003</v>
+        <v>937068.05796899996</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E219" s="6">
         <v>0</v>
@@ -6960,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="6">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K219" s="6">
         <v>0</v>
@@ -6969,12 +6978,12 @@
         <v>0</v>
       </c>
       <c r="M219" s="6">
-        <v>585964.96928800002</v>
+        <v>610897.21341800003</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E220" s="6">
         <v>0</v>
@@ -6983,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="6">
-        <v>0.79</v>
+        <v>1.41</v>
       </c>
       <c r="K220" s="6">
         <v>0</v>
@@ -6992,12 +7001,12 @@
         <v>0</v>
       </c>
       <c r="M220" s="6">
-        <v>309654.387162</v>
+        <v>585964.96928800002</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E221" s="6">
         <v>0</v>
@@ -7006,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="G221" s="6">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="K221" s="6">
         <v>0</v>
@@ -7015,12 +7024,12 @@
         <v>0</v>
       </c>
       <c r="M221" s="6">
-        <v>215636.26431100001</v>
+        <v>309654.387162</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E222" s="6">
         <v>0</v>
@@ -7029,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="G222" s="6">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="K222" s="6">
         <v>0</v>
@@ -7038,12 +7047,12 @@
         <v>0</v>
       </c>
       <c r="M222" s="6">
-        <v>175044.55846299999</v>
+        <v>215636.26431100001</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E223" s="6">
         <v>0</v>
@@ -7052,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="G223" s="6">
-        <v>1.38</v>
+        <v>0.41</v>
       </c>
       <c r="K223" s="6">
         <v>0</v>
@@ -7061,12 +7070,12 @@
         <v>0</v>
       </c>
       <c r="M223" s="6">
-        <v>571192.050666</v>
+        <v>175044.55846299999</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E224" s="6">
         <v>0</v>
@@ -7075,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="G224" s="6">
-        <v>0.54</v>
+        <v>1.38</v>
       </c>
       <c r="K224" s="6">
         <v>0</v>
@@ -7084,12 +7093,12 @@
         <v>0</v>
       </c>
       <c r="M224" s="6">
-        <v>231166.635626</v>
+        <v>571192.050666</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E225" s="6">
         <v>0</v>
@@ -7098,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="G225" s="6">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="K225" s="6">
         <v>0</v>
@@ -7107,12 +7116,12 @@
         <v>0</v>
       </c>
       <c r="M225" s="6">
-        <v>408213.64041699999</v>
+        <v>231166.635626</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E226" s="6">
         <v>0</v>
@@ -7121,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="G226" s="6">
-        <v>1.24</v>
+        <v>0.86</v>
       </c>
       <c r="K226" s="6">
         <v>0</v>
@@ -7130,12 +7139,12 @@
         <v>0</v>
       </c>
       <c r="M226" s="6">
-        <v>512170.309152</v>
+        <v>408213.64041699999</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E227" s="6">
         <v>0</v>
@@ -7144,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="6">
-        <v>0.46</v>
+        <v>1.24</v>
       </c>
       <c r="K227" s="6">
         <v>0</v>
@@ -7153,12 +7162,12 @@
         <v>0</v>
       </c>
       <c r="M227" s="6">
-        <v>209261.30485399999</v>
+        <v>512170.309152</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E228" s="6">
         <v>0</v>
@@ -7167,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="G228" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K228" s="6">
         <v>0</v>
@@ -7176,12 +7185,12 @@
         <v>0</v>
       </c>
       <c r="M228" s="6">
-        <v>154534.33486100001</v>
+        <v>209261.30485399999</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E229" s="6">
         <v>0</v>
@@ -7190,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="G229" s="6">
-        <v>0.67</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K229" s="6">
         <v>0</v>
@@ -7199,12 +7208,12 @@
         <v>0</v>
       </c>
       <c r="M229" s="6">
-        <v>257712.04862799999</v>
+        <v>154534.33486100001</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E230" s="6">
         <v>0</v>
@@ -7213,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="K230" s="6">
         <v>0</v>
@@ -7222,12 +7231,12 @@
         <v>0</v>
       </c>
       <c r="M230" s="6">
-        <v>279690.19312399998</v>
+        <v>257712.04862799999</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E231" s="6">
         <v>0</v>
@@ -7236,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="G231" s="6">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K231" s="6">
         <v>0</v>
@@ -7245,12 +7254,12 @@
         <v>0</v>
       </c>
       <c r="M231" s="6">
-        <v>201259.82886000001</v>
+        <v>279690.19312399998</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E232" s="6">
         <v>0</v>
@@ -7259,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="G232" s="6">
-        <v>2.34</v>
+        <v>0.51</v>
       </c>
       <c r="K232" s="6">
         <v>0</v>
@@ -7268,12 +7277,12 @@
         <v>0</v>
       </c>
       <c r="M232" s="6">
-        <v>855541.51910499996</v>
+        <v>201259.82886000001</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E233" s="6">
         <v>0</v>
@@ -7282,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="G233" s="6">
-        <v>0.42</v>
+        <v>2.34</v>
       </c>
       <c r="K233" s="6">
         <v>0</v>
@@ -7291,12 +7300,12 @@
         <v>0</v>
       </c>
       <c r="M233" s="6">
-        <v>158053.65481199999</v>
+        <v>855541.51910499996</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E234" s="6">
         <v>0</v>
@@ -7305,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="6">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="K234" s="6">
         <v>0</v>
@@ -7314,12 +7323,12 @@
         <v>0</v>
       </c>
       <c r="M234" s="6">
-        <v>125553.129892</v>
+        <v>158053.65481199999</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
@@ -7328,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="6">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="K235" s="6">
         <v>0</v>
@@ -7337,12 +7346,12 @@
         <v>0</v>
       </c>
       <c r="M235" s="6">
-        <v>357807.210471</v>
+        <v>125553.129892</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
@@ -7351,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="G236" s="6">
-        <v>1.18</v>
+        <v>0.97</v>
       </c>
       <c r="K236" s="6">
         <v>0</v>
@@ -7360,12 +7369,12 @@
         <v>0</v>
       </c>
       <c r="M236" s="6">
-        <v>477462.56150399998</v>
+        <v>357807.210471</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E237" s="6">
         <v>0</v>
@@ -7374,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="6">
-        <v>0.34</v>
+        <v>1.18</v>
       </c>
       <c r="K237" s="6">
         <v>0</v>
@@ -7383,12 +7392,12 @@
         <v>0</v>
       </c>
       <c r="M237" s="6">
-        <v>142115.98568499999</v>
+        <v>477462.56150399998</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E238" s="6">
         <v>0</v>
@@ -7397,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="K238" s="6">
         <v>0</v>
@@ -7406,12 +7415,12 @@
         <v>0</v>
       </c>
       <c r="M238" s="6">
-        <v>148951.506203</v>
+        <v>142115.98568499999</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E239" s="6">
         <v>0</v>
@@ -7420,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="6">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K239" s="6">
         <v>0</v>
@@ -7429,12 +7438,12 @@
         <v>0</v>
       </c>
       <c r="M239" s="6">
-        <v>182708.06097300001</v>
+        <v>148951.506203</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E240" s="6">
         <v>0</v>
@@ -7443,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="G240" s="6">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="K240" s="6">
         <v>0</v>
@@ -7452,12 +7461,12 @@
         <v>0</v>
       </c>
       <c r="M240" s="6">
-        <v>122922.446773</v>
+        <v>182708.06097300001</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E241" s="6">
         <v>0</v>
@@ -7466,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="G241" s="6">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="K241" s="6">
         <v>0</v>
@@ -7475,12 +7484,12 @@
         <v>0</v>
       </c>
       <c r="M241" s="6">
-        <v>172110.861404</v>
+        <v>122922.446773</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E242" s="6">
         <v>0</v>
@@ -7489,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="6">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="K242" s="6">
         <v>0</v>
@@ -7498,12 +7507,12 @@
         <v>0</v>
       </c>
       <c r="M242" s="6">
-        <v>238720.161165</v>
+        <v>172110.861404</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E243" s="6">
         <v>0</v>
@@ -7512,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="G243" s="6">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="K243" s="6">
         <v>0</v>
@@ -7521,12 +7530,12 @@
         <v>0</v>
       </c>
       <c r="M243" s="6">
-        <v>167967.726654</v>
+        <v>238720.161165</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E244" s="6">
         <v>0</v>
@@ -7535,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="6">
-        <v>0.71</v>
+        <v>0.41</v>
       </c>
       <c r="K244" s="6">
         <v>0</v>
@@ -7544,12 +7553,12 @@
         <v>0</v>
       </c>
       <c r="M244" s="6">
-        <v>289052.80012099998</v>
+        <v>167967.726654</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E245" s="6">
         <v>0</v>
@@ -7558,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="6">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="K245" s="6">
         <v>0</v>
@@ -7567,12 +7576,12 @@
         <v>0</v>
       </c>
       <c r="M245" s="6">
-        <v>607727.55133000005</v>
+        <v>289052.80012099998</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E246" s="6">
         <v>0</v>
@@ -7581,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="6">
-        <v>0.52</v>
+        <v>1.5</v>
       </c>
       <c r="K246" s="6">
         <v>0</v>
@@ -7590,12 +7599,12 @@
         <v>0</v>
       </c>
       <c r="M246" s="6">
-        <v>253484.25468799999</v>
+        <v>607727.55133000005</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E247" s="6">
         <v>0</v>
@@ -7604,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="6">
-        <v>1.49</v>
+        <v>0.52</v>
       </c>
       <c r="K247" s="6">
         <v>0</v>
@@ -7613,12 +7622,12 @@
         <v>0</v>
       </c>
       <c r="M247" s="6">
-        <v>475132.16367500002</v>
+        <v>253484.25468799999</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E248" s="6">
         <v>0</v>
@@ -7627,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="6">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="K248" s="6">
         <v>0</v>
@@ -7636,12 +7645,12 @@
         <v>0</v>
       </c>
       <c r="M248" s="6">
-        <v>617505.22737400001</v>
+        <v>475132.16367500002</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E249" s="6">
         <v>0</v>
@@ -7650,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="G249" s="6">
-        <v>0.61</v>
+        <v>1.68</v>
       </c>
       <c r="K249" s="6">
         <v>0</v>
@@ -7659,12 +7668,12 @@
         <v>0</v>
       </c>
       <c r="M249" s="6">
-        <v>250939.35637699999</v>
+        <v>617505.22737400001</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E250" s="6">
         <v>0</v>
@@ -7673,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="G250" s="6">
-        <v>1.28</v>
+        <v>0.61</v>
       </c>
       <c r="K250" s="6">
         <v>0</v>
@@ -7682,12 +7691,12 @@
         <v>0</v>
       </c>
       <c r="M250" s="6">
-        <v>540793.58003499999</v>
+        <v>250939.35637699999</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E251" s="6">
         <v>0</v>
@@ -7696,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="G251" s="6">
-        <v>0.64</v>
+        <v>1.28</v>
       </c>
       <c r="K251" s="6">
         <v>0</v>
@@ -7705,12 +7714,12 @@
         <v>0</v>
       </c>
       <c r="M251" s="6">
-        <v>224091.584455</v>
+        <v>540793.58003499999</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E252" s="6">
         <v>0</v>
@@ -7719,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="G252" s="6">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="K252" s="6">
         <v>0</v>
@@ -7728,12 +7737,12 @@
         <v>0</v>
       </c>
       <c r="M252" s="6">
-        <v>335001.54282700003</v>
+        <v>224091.584455</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E253" s="6">
         <v>0</v>
@@ -7742,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="6">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="K253" s="6">
         <v>0</v>
@@ -7751,12 +7760,12 @@
         <v>0</v>
       </c>
       <c r="M253" s="6">
-        <v>548574.89447699999</v>
+        <v>335001.54282700003</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E254" s="6">
         <v>0</v>
@@ -7765,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="6">
-        <v>0.24</v>
+        <v>1.72</v>
       </c>
       <c r="K254" s="6">
         <v>0</v>
@@ -7774,12 +7783,12 @@
         <v>0</v>
       </c>
       <c r="M254" s="6">
-        <v>178869.898808</v>
+        <v>548574.89447699999</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E255" s="6">
         <v>0</v>
@@ -7788,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="6">
-        <v>2.33</v>
+        <v>0.24</v>
       </c>
       <c r="K255" s="6">
         <v>0</v>
@@ -7797,12 +7806,12 @@
         <v>0</v>
       </c>
       <c r="M255" s="6">
-        <v>723528.55987800006</v>
+        <v>178869.898808</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E256" s="6">
         <v>0</v>
@@ -7811,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="G256" s="6">
-        <v>1.02</v>
+        <v>2.33</v>
       </c>
       <c r="K256" s="6">
         <v>0</v>
@@ -7820,12 +7829,12 @@
         <v>0</v>
       </c>
       <c r="M256" s="6">
-        <v>402690.25984499999</v>
+        <v>723528.55987800006</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E257" s="6">
         <v>0</v>
@@ -7834,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="G257" s="6">
-        <v>0.71</v>
+        <v>1.02</v>
       </c>
       <c r="K257" s="6">
         <v>0</v>
@@ -7843,12 +7852,12 @@
         <v>0</v>
       </c>
       <c r="M257" s="6">
-        <v>277591.19321900001</v>
+        <v>402690.25984499999</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E258" s="6">
         <v>0</v>
@@ -7857,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="G258" s="6">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="K258" s="6">
         <v>0</v>
@@ -7866,12 +7875,12 @@
         <v>0</v>
       </c>
       <c r="M258" s="6">
-        <v>271808.382789</v>
+        <v>277591.19321900001</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E259" s="6">
         <v>0</v>
@@ -7880,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="G259" s="6">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="K259" s="6">
         <v>0</v>
@@ -7889,12 +7898,12 @@
         <v>0</v>
       </c>
       <c r="M259" s="6">
-        <v>264686.508821</v>
+        <v>271808.382789</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E260" s="6">
         <v>0</v>
@@ -7903,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="6">
-        <v>1.06</v>
+        <v>0.76</v>
       </c>
       <c r="K260" s="6">
         <v>0</v>
@@ -7912,12 +7921,12 @@
         <v>0</v>
       </c>
       <c r="M260" s="6">
-        <v>382563.829142</v>
+        <v>264686.508821</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E261" s="6">
         <v>0</v>
@@ -7926,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="G261" s="6">
-        <v>0.32</v>
+        <v>1.06</v>
       </c>
       <c r="K261" s="6">
         <v>0</v>
@@ -7935,12 +7944,12 @@
         <v>0</v>
       </c>
       <c r="M261" s="6">
-        <v>166235.439686</v>
+        <v>382563.829142</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E262" s="6">
         <v>0</v>
@@ -7949,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="G262" s="6">
-        <v>0.92</v>
+        <v>0.32</v>
       </c>
       <c r="K262" s="6">
         <v>0</v>
@@ -7958,44 +7967,35 @@
         <v>0</v>
       </c>
       <c r="M262" s="6">
-        <v>355133.42903100001</v>
+        <v>166235.439686</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6">
-        <v>263</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" s="6">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="E263" s="6">
         <v>0</v>
       </c>
       <c r="F263" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G263" s="6">
-        <v>11.53</v>
+        <v>0.92</v>
       </c>
       <c r="K263" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="L263" s="6">
         <v>0</v>
       </c>
       <c r="M263" s="6">
-        <v>1165387.83922</v>
+        <v>355133.42903100001</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M263">
-    <sortCondition descending="1" ref="L1:L263"/>
+    <sortCondition descending="1" ref="F1:F263"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284D9E1-0697-456F-B2EB-C1B42CAD1612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9F6AA7-0F50-4F13-B20D-C6A9BACCF014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3438" yWindow="1212" windowWidth="15198" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7272" yWindow="1158" windowWidth="15198" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waterbodies" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="124">
   <si>
     <t>FID_WaterB</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>NetCDF coordinates (y,x)</t>
+  </si>
+  <si>
+    <t>(80, 213)</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1315,9 @@
   <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F263" sqref="F49:F263"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1376,7 +1379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>31</v>

--- a/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
+++ b/Data_forNotebooks/Reservoir_Historical/Waterbodies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\Reservoir_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9F6AA7-0F50-4F13-B20D-C6A9BACCF014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD35DC-ED1E-4787-A1D4-B74DB64F97DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7272" yWindow="1158" windowWidth="15198" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waterbodies" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -935,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -950,6 +956,7 @@
     <xf numFmtId="1" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1314,31 +1321,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.47265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.62890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.47265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1015625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.62890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.89453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.9453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.9453125" style="4"/>
+    <col min="6" max="6" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="13" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>5192626.40252</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>12206634.9968</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>27</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>3039788.0300500002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>7</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>219023437.13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>3632029.37904</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>262</v>
       </c>
@@ -1607,7 +1614,7 @@
         <v>20342510.737500001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>26</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>6434332.4668199997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>54</v>
       </c>
@@ -1677,7 +1684,7 @@
         <v>3465637.5686499998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>38</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>1991095.1709199999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>2380088.97254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>14</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>30438234.138700001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>18</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>10358964.5931</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>25</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>1130027.09962</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>34</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>3466522.96313</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>21</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>3403454.6253</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>20</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>5272414.7437899997</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>14883580.310699999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>22</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>8493674.6534899995</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>41</v>
       </c>
@@ -2080,7 +2087,7 @@
         <v>2391775.9980600001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>35</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>7163448.84363</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>115</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>769356.93798100005</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>24</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>1010841.85921</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>4163024.6547500002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>12</v>
       </c>
@@ -2261,7 +2268,7 @@
         <v>22615617.320099998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>49</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>7799559.6630300004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -2334,7 +2341,7 @@
         <v>880308.03095799999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>8058071.9900500001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>1841616.41655</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>51</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>1409596.54975</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>261</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>12257974.2491</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>47</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>3600471.40014</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -2553,7 +2560,7 @@
         <v>4022304.6637800001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>4</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>1173885.89368</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>1436201.97263</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>6</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>13391770.616</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>9</v>
       </c>
@@ -2690,7 +2697,7 @@
         <v>11518999.062100001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>10</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>17165139.675799999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>11</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>9858585.9837299995</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>13</v>
       </c>
@@ -2758,8 +2765,8 @@
       <c r="C40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
+      <c r="E40" s="12">
+        <v>0</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
@@ -2780,7 +2787,7 @@
         <v>18026084.625999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>15</v>
       </c>
@@ -2815,7 +2822,7 @@
         <v>15926796.4344</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>16</v>
       </c>
@@ -2850,7 +2857,7 @@
         <v>22852470.039700001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>30</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>3052956.4588500001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>31</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>1557149.8697200001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>9959267.4540999997</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>4988151.46349</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>159</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>887956.31197799998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>263</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>1165387.83922</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>19</v>
       </c>
@@ -3065,7 +3072,7 @@
         <v>1510046.6520799999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>29</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>1063138.8309299999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>32</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>1130590.45575</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>33</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v>1358282.1769099999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>36</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>1016784.96526</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>37</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>1284992.4723</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>40</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>2008346.87775</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>45</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>2276226.7491700002</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>48</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>1612077.54073</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>50</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>3375025.2315000002</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>52</v>
       </c>
@@ -3304,7 +3311,7 @@
         <v>1278129.3802700001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -3327,7 +3334,7 @@
         <v>992778.37521500001</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>55</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>138980.91878400001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>56</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>106960.645911</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>57</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>252980.516603</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>58</v>
       </c>
@@ -3419,7 +3426,7 @@
         <v>531712.76555999997</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>59</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>379533.96651100001</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>60</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>343043.79585300002</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>61</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>245399.98779899999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>62</v>
       </c>
@@ -3511,7 +3518,7 @@
         <v>159741.84028199999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>63</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>276888.23466299998</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>64</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>167631.32775</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>65</v>
       </c>
@@ -3580,7 +3587,7 @@
         <v>286663.56129899999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>66</v>
       </c>
@@ -3603,7 +3610,7 @@
         <v>190707.13853200001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>67</v>
       </c>
@@ -3626,7 +3633,7 @@
         <v>227812.821211</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>68</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>216546.93231800001</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>69</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>771752.52804100001</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>71</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>297382.623089</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>72</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>273275.54058899998</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>73</v>
       </c>
@@ -3741,7 +3748,7 @@
         <v>203171.55566400001</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>74</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>190592.21510599999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>75</v>
       </c>
@@ -3787,7 +3794,7 @@
         <v>108773.238878</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>76</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>185205.21672200001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>77</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>267947.814472</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>78</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>261711.67389199999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>79</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>768946.84453400003</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>80</v>
       </c>
@@ -3902,7 +3909,7 @@
         <v>546693.80575399997</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>81</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>251209.585662</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>82</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>143166.89691400001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>83</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>108511.346985</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>84</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>244626.270624</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>85</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>164590.15934700001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>86</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>182663.531353</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>87</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>145769.129946</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>88</v>
       </c>
@@ -4086,7 +4093,7 @@
         <v>342207.400249</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>89</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>216151.680895</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>90</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>673291.98380399996</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>91</v>
       </c>
@@ -4155,7 +4162,7 @@
         <v>254447.471525</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>92</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>168428.58785800001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>93</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>265857.14852699998</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>94</v>
       </c>
@@ -4224,7 +4231,7 @@
         <v>671672.03022299998</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>95</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>256177.162943</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>96</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>310385.67397100001</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>97</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>231362.702277</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>98</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>236075.64843199999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>99</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>273802.77028900001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>100</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>117083.399731</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>101</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>333288.97687800002</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>102</v>
       </c>
@@ -4408,7 +4415,7 @@
         <v>196829.51856699999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>103</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>98490.126094199994</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>104</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>243142.83407700001</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>105</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>107487.407353</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>106</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>145029.027768</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>107</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>143201.390697</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>108</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>95262.661852599995</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>109</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>160128.16270700001</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>110</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>205137.67380399999</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>111</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>249418.27531900001</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>112</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>281441.71957000002</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>113</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>151575.09785200001</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>114</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>474678.62011800002</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>116</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>215226.51371699999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>117</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>649867.59459899995</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>118</v>
       </c>
@@ -4753,7 +4760,7 @@
         <v>403580.79258299997</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>119</v>
       </c>
@@ -4776,7 +4783,7 @@
         <v>243026.15291</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>120</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>316886.34509800002</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>121</v>
       </c>
@@ -4822,7 +4829,7 @@
         <v>217648.941158</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>122</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>157515.13235900001</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>123</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>179571.25627499999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>124</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>460290.71371099999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>125</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>131013.726861</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>126</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>179992.498269</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>127</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>168190.114053</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>128</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>246798.36494299999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>129</v>
       </c>
@@ -5006,7 +5013,7 @@
         <v>129773.62564100001</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>130</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>160392.520387</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>131</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>384766.25507700001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>132</v>
       </c>
@@ -5075,7 +5082,7 @@
         <v>276872.48297299998</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>133</v>
       </c>
@@ -5098,7 +5105,7 @@
         <v>282387.82724299998</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>134</v>
       </c>
@@ -5121,7 +5128,7 @@
         <v>249038.84888000001</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>135</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>259470.95787000001</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>136</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>176232.865234</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>137</v>
       </c>
@@ -5190,7 +5197,7 @@
         <v>930899.06333799998</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>138</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>696240.53367399995</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>139</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>242485.01456499999</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>140</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>292221.09454100003</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>141</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>529325.36410300003</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>142</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>208619.54384</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>143</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>130329.69919</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>144</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>153185.51705699999</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>145</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>261672.854142</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>146</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>114701.114162</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>147</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>265821.87476999999</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>148</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>265612.42688400001</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>149</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>259983.55598599999</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>150</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>249786.68086699999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>151</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>138695.111038</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>152</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>119771.579535</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>153</v>
       </c>
@@ -5558,7 +5565,7 @@
         <v>267647.800987</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>154</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>301890.854949</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>155</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>956694.69909799995</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>156</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>307837.01124899997</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>157</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>187860.24234699999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>158</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>926065.73872499994</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>160</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>191912.05658400001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>161</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>168961.72609400001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>162</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>661844.16334199999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>163</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>97930.331151699997</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>164</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>378684.23080700001</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>165</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>273242.000413</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>166</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>215802.494951</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>167</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>296036.26260000002</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>168</v>
       </c>
@@ -5880,7 +5887,7 @@
         <v>181435.43418800001</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>169</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>587001.93196399999</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>170</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>183413.18584399999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>171</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>177115.11062799999</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>172</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>117758.853258</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>173</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>386397.785401</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>174</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>314566.80738200003</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>175</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>183443.55138799999</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>176</v>
       </c>
@@ -6064,7 +6071,7 @@
         <v>288911.72123099997</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>177</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>340358.50898300001</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>178</v>
       </c>
@@ -6110,7 +6117,7 @@
         <v>376011.53590299998</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>179</v>
       </c>
@@ -6133,7 +6140,7 @@
         <v>615757.46367199998</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>180</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>322690.3247</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>181</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>790451.30120999995</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>182</v>
       </c>
@@ -6202,7 +6209,7 @@
         <v>217532.746254</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>183</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>197053.491304</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>184</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>305656.12233300001</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>185</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>209157.497875</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>186</v>
       </c>
@@ -6294,7 +6301,7 @@
         <v>125499.49308099999</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>187</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>191930.28757799999</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>188</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>164965.069525</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>189</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>273807.40020099998</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>190</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>137703.19680100001</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>191</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>159521.050869</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>192</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>358902.57082800003</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>193</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>141619.82892500001</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>194</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>270805.43220899999</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>195</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>263252.74517800001</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>196</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>350723.13257299998</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>197</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>518829.17550299998</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>198</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>152170.800407</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>199</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>140101.60056300001</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>200</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>103291.022205</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>201</v>
       </c>
@@ -6639,7 +6646,7 @@
         <v>207685.12886699999</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>202</v>
       </c>
@@ -6662,7 +6669,7 @@
         <v>227186.28148800001</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>203</v>
       </c>
@@ -6685,7 +6692,7 @@
         <v>150739.30815600001</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>204</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>632530.916784</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>205</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>540104.82346700004</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>206</v>
       </c>
@@ -6754,7 +6761,7 @@
         <v>117259.065336</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>207</v>
       </c>
@@ -6777,7 +6784,7 @@
         <v>409477.34774499998</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>208</v>
       </c>
@@ -6800,7 +6807,7 @@
         <v>579400.79675900005</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>209</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>148681.84551799999</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>210</v>
       </c>
@@ -6846,7 +6853,7 @@
         <v>585051.86756899999</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>211</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>160052.19985500001</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>212</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>124859.33564200001</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>213</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>252434.84820400001</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>214</v>
       </c>
@@ -6938,7 +6945,7 @@
         <v>825423.22590800002</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>215</v>
       </c>
@@ -6961,7 +6968,7 @@
         <v>937068.05796899996</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>216</v>
       </c>
@@ -6984,7 +6991,7 @@
         <v>610897.21341800003</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>217</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>585964.96928800002</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>218</v>
       </c>
@@ -7030,7 +7037,7 @@
         <v>309654.387162</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>219</v>
       </c>
@@ -7053,7 +7060,7 @@
         <v>215636.26431100001</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>220</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>175044.55846299999</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>221</v>
       </c>
@@ -7099,7 +7106,7 @@
         <v>571192.050666</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>222</v>
       </c>
@@ -7122,7 +7129,7 @@
         <v>231166.635626</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>223</v>
       </c>
@@ -7145,7 +7152,7 @@
         <v>408213.64041699999</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>224</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>512170.309152</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>225</v>
       </c>
@@ -7191,7 +7198,7 @@
         <v>209261.30485399999</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>226</v>
       </c>
@@ -7214,7 +7221,7 @@
         <v>154534.33486100001</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>227</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>257712.04862799999</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>228</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>279690.19312399998</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>229</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>201259.82886000001</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>230</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>855541.51910499996</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>231</v>
       </c>
@@ -7329,7 +7336,7 @@
         <v>158053.65481199999</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>232</v>
       </c>
@@ -7352,7 +7359,7 @@
         <v>125553.129892</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>233</v>
       </c>
@@ -7375,7 +7382,7 @@
         <v>357807.210471</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>234</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>477462.56150399998</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>235</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>142115.98568499999</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>236</v>
       </c>
@@ -7444,7 +7451,7 @@
         <v>148951.506203</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>237</v>
       </c>
@@ -7467,7 +7474,7 @@
         <v>182708.06097300001</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>238</v>
       </c>
@@ -7490,7 +7497,7 @@
         <v>122922.446773</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>239</v>
       </c>
@@ -7513,7 +7520,7 @@
         <v>172110.861404</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>240</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>238720.161165</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>241</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>167967.726654</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>242</v>
       </c>
@@ -7582,7 +7589,7 @@
         <v>289052.80012099998</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>243</v>
       </c>
@@ -7605,7 +7612,7 @@
         <v>607727.55133000005</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>244</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>253484.25468799999</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>245</v>
       </c>
@@ -7651,7 +7658,7 @@
         <v>475132.16367500002</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>246</v>
       </c>
@@ -7674,7 +7681,7 @@
         <v>617505.22737400001</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>247</v>
       </c>
@@ -7697,7 +7704,7 @@
         <v>250939.35637699999</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>248</v>
       </c>
@@ -7720,7 +7727,7 @@
         <v>540793.58003499999</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>249</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>224091.584455</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>250</v>
       </c>
@@ -7766,7 +7773,7 @@
         <v>335001.54282700003</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>251</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>548574.89447699999</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>252</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>178869.898808</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>253</v>
       </c>
@@ -7835,7 +7842,7 @@
         <v>723528.55987800006</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>254</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>402690.25984499999</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>255</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>277591.19321900001</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>256</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>271808.382789</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>257</v>
       </c>
@@ -7927,7 +7934,7 @@
         <v>264686.508821</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>258</v>
       </c>
@@ -7950,7 +7957,7 @@
         <v>382563.829142</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>259</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>166235.439686</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>260</v>
       </c>
@@ -8013,15 +8020,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8029,7 +8036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -8045,7 +8052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>114</v>
       </c>
@@ -8053,7 +8060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
@@ -8061,7 +8068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -8069,7 +8076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
@@ -8077,7 +8084,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
@@ -8085,7 +8092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -8093,7 +8100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8116,25 +8123,25 @@
       <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.62890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.47265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.41796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9453125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.47265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1015625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.62890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.89453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.9453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.9453125" style="4"/>
+    <col min="7" max="7" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="13" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8182,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>28</v>
       </c>
@@ -8212,7 +8219,7 @@
         <v>5192626.40252</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>17</v>
       </c>
@@ -8251,7 +8258,7 @@
         <v>12206634.9968</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>27</v>
       </c>
@@ -8292,7 +8299,7 @@
         <v>3039788.0300500002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>7</v>
       </c>
@@ -8331,7 +8338,7 @@
         <v>219023437.13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -8372,7 +8379,7 @@
         <v>3632029.37904</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>262</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>20342510.737500001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>26</v>
       </c>
@@ -8446,7 +8453,7 @@
         <v>6434332.4668199997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>54</v>
       </c>
@@ -8483,7 +8490,7 @@
         <v>3465637.5686499998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>38</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>1991095.1709199999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>42</v>
       </c>
@@ -8559,7 +8566,7 @@
         <v>2380088.97254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>14</v>
       </c>
@@ -8598,7 +8605,7 @@
         <v>30438234.138700001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>18</v>
       </c>
@@ -8635,7 +8642,7 @@
         <v>10358964.5931</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>25</v>
       </c>
@@ -8672,7 +8679,7 @@
         <v>1130027.09962</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>34</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>3466522.96313</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>21</v>
       </c>
@@ -8748,7 +8755,7 @@
         <v>3403454.6253</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>20</v>
       </c>
@@ -8787,7 +8794,7 @@
         <v>5272414.7437899997</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>8</v>
       </c>
@@ -8826,7 +8833,7 @@
         <v>14883580.310699999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>22</v>
       </c>
@@ -8865,7 +8872,7 @@
         <v>8493674.6534899995</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>41</v>
       </c>
@@ -8902,7 +8909,7 @@
         <v>2391775.9980600001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>35</v>
       </c>
@@ -8941,7 +8948,7 @@
         <v>7163448.84363</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>115</v>
       </c>
@@ -8978,7 +8985,7 @@
         <v>769356.93798100005</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>24</v>
       </c>
@@ -9015,7 +9022,7 @@
         <v>1010841.85921</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44</v>
       </c>
@@ -9052,7 +9059,7 @@
         <v>4163024.6547500002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>12</v>
       </c>
@@ -9091,7 +9098,7 @@
         <v>22615617.320099998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>49</v>
       </c>
@@ -9128,7 +9135,7 @@
         <v>7799559.6630300004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>3</v>
       </c>
@@ -9167,7 +9174,7 @@
         <v>880308.03095799999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>23</v>
       </c>
@@ -9206,7 +9213,7 @@
         <v>8058071.9900500001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43</v>
       </c>
@@ -9243,7 +9250,7 @@
         <v>1841616.41655</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>51</v>
       </c>
@@ -9280,7 +9287,7 @@
         <v>1409596.54975</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>261</v>
       </c>
@@ -9319,7 +9326,7 @@
         <v>12257974.2491</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>47</v>
       </c>
@@ -9356,7 +9363,7 @@
         <v>3600471.40014</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -9395,7 +9402,7 @@
         <v>4022304.6637800001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>4</v>
       </c>
@@ -9430,7 +9437,7 @@
         <v>1173885.89368</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -9465,7 +9472,7 @@
         <v>1436201.97263</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>6</v>
       </c>
@@ -9502,7 +9509,7 @@
         <v>13391770.616</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>9</v>
       </c>
@@ -9537,7 +9544,7 @@
         <v>11518999.062100001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>10</v>
       </c>
@@ -9570,7 +9577,7 @@
         <v>17165139.675799999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>11</v>
       </c>
@@ -9603,7 +9610,7 @@
         <v>9858585.9837299995</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>13</v>
       </c>
@@ -9638,7 +9645,7 @@
         <v>18026084.625999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>15</v>
       </c>
@@ -9673,7 +9680,7 @@
         <v>15926796.4344</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>16</v>
       </c>
@@ -9710,7 +9717,7 @@
         <v>22852470.039700001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>19</v>
       </c>
@@ -9739,7 +9746,7 @@
         <v>1510046.6520799999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>29</v>
       </c>
@@ -9768,7 +9775,7 @@
         <v>1063138.8309299999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>30</v>
       </c>
@@ -9801,7 +9808,7 @@
         <v>3052956.4588500001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>31</v>
       </c>
@@ -9833,7 +9840,7 @@
         <v>1557149.8697200001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>32</v>
       </c>
@@ -9856,7 +9863,7 @@
         <v>1130590.45575</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>33</v>
       </c>
@@ -9885,7 +9892,7 @@
         <v>1358282.1769099999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>36</v>
       </c>
@@ -9908,7 +9915,7 @@
         <v>1016784.96526</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>37</v>
       </c>
@@ -9937,7 +9944,7 @@
         <v>1284992.4723</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>39</v>
       </c>
@@ -9974,7 +9981,7 @@
         <v>9959267.4540999997</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>40</v>
       </c>
@@ -10003,7 +10010,7 @@
         <v>2008346.87775</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>45</v>
       </c>
@@ -10026,7 +10033,7 @@
         <v>2276226.7491700002</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>46</v>
       </c>
@@ -10058,7 +10065,7 @@
         <v>4988151.46349</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -10087,7 +10094,7 @@
         <v>1612077.54073</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>50</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>3375025.2315000002</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>52</v>
       </c>
@@ -10145,7 +10152,7 @@
         <v>1278129.3802700001</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>53</v>
       </c>
@@ -10168,7 +10175,7 @@
         <v>992778.37521500001</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -10191,7 +10198,7 @@
         <v>138980.91878400001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -10214,7 +10221,7 @@
         <v>106960.645911</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -10237,7 +10244,7 @@
         <v>252980.516603</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -10260,7 +10267,7 @@
         <v>531712.76555999997</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -10283,7 +10290,7 @@
         <v>379533.96651100001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -10306,7 +10313,7 @@
         <v>343043.79585300002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>61</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>245399.98779899999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>62</v>
       </c>
@@ -10352,7 +10359,7 @@
         <v>159741.84028199999</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>63</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>276888.23466299998</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>64</v>
       </c>
@@ -10398,7 +10405,7 @@
         <v>167631.32775</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>65</v>
       </c>
@@ -10421,7 +10428,7 @@
         <v>286663.56129899999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>66</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>190707.13853200001</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>67</v>
       </c>
@@ -10467,7 +10474,7 @@
         <v>227812.821211</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>68</v>
       </c>
@@ -10490,7 +10497,7 @@
         <v>216546.93231800001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>69</v>
       </c>
@@ -10513,7 +10520,7 @@
         <v>771752.52804100001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -10536,7 +10543,7 @@
         <v>297382.623089</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>273275.54058899998</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -10582,7 +10589,7 @@
         <v>203171.55566400001</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -10605,7 +10612,7 @@
         <v>190592.21510599999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -10628,7 +10635,7 @@
         <v>108773.238878</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -10651,7 +10658,7 @@
         <v>185205.21672200001</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>267947.814472</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -10697,7 +10704,7 @@
         <v>261711.67389199999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -10720,7 +10727,7 @@
         <v>768946.84453400003</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -10743,7 +10750,7 @@
         <v>546693.80575399997</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -10766,7 +10773,7 @@
         <v>251209.585662</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -10789,7 +10796,7 @@
         <v>143166.89691400001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -10812,7 +10819,7 @@
         <v>108511.346985</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -10835,7 +10842,7 @@
         <v>244626.270624</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -10858,7 +10865,7 @@
         <v>164590.15934700001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -10881,7 +10888,7 @@
         <v>182663.531353</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -10904,7 +10911,7 @@
         <v>145769.129946</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -10927,7 +10934,7 @@
         <v>342207.400249</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -10950,7 +10957,7 @@
         <v>216151.680895</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -10973,7 +10980,7 @@
         <v>673291.98380399996</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -10996,7 +11003,7 @@
         <v>254447.471525</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -11019,7 +11026,7 @@
         <v>168428.58785800001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -11042,7 +11049,7 @@
         <v>265857.14852699998</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -11065,7 +11072,7 @@
         <v>671672.03022299998</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -11088,7 +11095,7 @@
         <v>256177.162943</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>310385.67397100001</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -11134,7 +11141,7 @@
         <v>231362.702277</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -11157,7 +11164,7 @@
         <v>236075.64843199999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -11180,7 +11187,7 @@
         <v>273802.77028900001</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -11203,7 +11210,7 @@
         <v>117083.399731</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -11226,7 +11233,7 @@
         <v>333288.97687800002</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -11249,7 +11256,7 @@
         <v>196829.51856699999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -11272,7 +11279,7 @@
         <v>98490.126094199994</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -11295,7 +11302,7 @@
         <v>243142.83407700001</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -11318,7 +11325,7 @@
         <v>107487.407353</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -11341,7 +11348,7 @@
         <v>145029.027768</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -11364,7 +11371,7 @@
         <v>143201.390697</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -11387,7 +11394,7 @@
         <v>95262.661852599995</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -11410,7 +11417,7 @@
         <v>160128.16270700001</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -11433,7 +11440,7 @@
         <v>205137.67380399999</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -11456,7 +11463,7 @@
         <v>249418.27531900001</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -11485,7 +11492,7 @@
         <v>281441.71957000002</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -11508,7 +11515,7 @@
         <v>151575.09785200001</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -11531,7 +11538,7 @@
         <v>474678.62011800002</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>116</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>215226.51371699999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>117</v>
       </c>
@@ -11577,7 +11584,7 @@
         <v>649867.59459899995</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>118</v>
       </c>
@@ -11600,7 +11607,7 @@
         <v>403580.79258299997</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>119</v>
       </c>
@@ -11623,7 +11630,7 @@
         <v>243026.15291</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>120</v>
       </c>
@@ -11646,7 +11653,7 @@
         <v>316886.34509800002</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>121</v>
       </c>
@@ -11669,7 +11676,7 @@
         <v>217648.941158</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>122</v>
       </c>
@@ -11692,7 +11699,7 @@
         <v>157515.13235900001</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>123</v>
       </c>
@@ -11715,7 +11722,7 @@
         <v>179571.25627499999</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>124</v>
       </c>
@@ -11738,7 +11745,7 @@
         <v>460290.71371099999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>125</v>
       </c>
@@ -11761,7 +11768,7 @@
         <v>131013.726861</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>126</v>
       </c>
@@ -11784,7 +11791,7 @@
         <v>179992.498269</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>127</v>
       </c>
@@ -11807,7 +11814,7 @@
         <v>168190.114053</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>128</v>
       </c>
@@ -11830,7 +11837,7 @@
         <v>246798.36494299999</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>129</v>
       </c>
@@ -11853,7 +11860,7 @@
         <v>129773.62564100001</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>130</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>160392.520387</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>131</v>
       </c>
@@ -11899,7 +11906,7 @@
         <v>384766.25507700001</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>132</v>
       </c>
@@ -11922,7 +11929,7 @@
         <v>276872.48297299998</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>133</v>
       </c>
@@ -11945,7 +11952,7 @@
         <v>282387.82724299998</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>134</v>
       </c>
@@ -11968,7 +11975,7 @@
         <v>249038.84888000001</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>135</v>
       </c>
@@ -11991,7 +11998,7 @@
         <v>259470.95787000001</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>136</v>
       </c>
@@ -12014,7 +12021,7 @@
         <v>176232.865234</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>137</v>
       </c>
@@ -12037,7 +12044,7 @@
         <v>930899.06333799998</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>138</v>
       </c>
@@ -12060,7 +12067,7 @@
         <v>696240.53367399995</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>139</v>
       </c>
@@ -12083,7 +12090,7 @@
         <v>242485.01456499999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>140</v>
       </c>
@@ -12106,7 +12113,7 @@
         <v>292221.09454100003</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>141</v>
       </c>
@@ -12129,7 +12136,7 @@
         <v>529325.36410300003</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>142</v>
       </c>
@@ -12152,7 +12159,7 @@
         <v>208619.54384</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>143</v>
       </c>
@@ -12175,7 +12182,7 @@
         <v>130329.69919</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>144</v>
       </c>
@@ -12198,7 +12205,7 @@
         <v>153185.51705699999</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>145</v>
       </c>
@@ -12221,7 +12228,7 @@
         <v>261672.854142</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>146</v>
       </c>
@@ -12244,7 +12251,7 @@
         <v>114701.114162</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>147</v>
       </c>
@@ -12267,7 +12274,7 @@
         <v>265821.87476999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>148</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>265612.42688400001</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>149</v>
       </c>
@@ -12313,7 +12320,7 @@
         <v>259983.55598599999</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>150</v>
       </c>
@@ -12336,7 +12343,7 @@
         <v>249786.68086699999</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>151</v>
       </c>
@@ -12359,7 +12366,7 @@
         <v>138695.111038</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>152</v>
       </c>
@@ -12382,7 +12389,7 @@
         <v>119771.579535</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>153</v>
       </c>
@@ -12405,7 +12412,7 @@
         <v>267647.800987</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>154</v>
       </c>
@@ -12428,7 +12435,7 @@
         <v>301890.854949</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>155</v>
       </c>
@@ -12451,7 +12458,7 @@
         <v>956694.69909799995</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>156</v>
       </c>
@@ -12474,7 +12481,7 @@
         <v>307837.01124899997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>157</v>
       </c>
@@ -12497,7 +12504,7 @@
         <v>187860.24234699999</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>158</v>
       </c>
@@ -12520,7 +12527,7 @@
         <v>926065.73872499994</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>159</v>
       </c>
@@ -12552,7 +12559,7 @@
         <v>887956.31197799998</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>160</v>
       </c>
@@ -12575,7 +12582,7 @@
         <v>191912.05658400001</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>161</v>
       </c>
@@ -12598,7 +12605,7 @@
         <v>168961.72609400001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>162</v>
       </c>
@@ -12621,7 +12628,7 @@
         <v>661844.16334199999</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>163</v>
       </c>
@@ -12644,7 +12651,7 @@
         <v>97930.331151699997</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>164</v>
       </c>
@@ -12667,7 +12674,7 @@
         <v>378684.23080700001</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>165</v>
       </c>
@@ -12690,7 +12697,7 @@
         <v>273242.000413</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>166</v>
       </c>
@@ -12713,7 +12720,7 @@
         <v>215802.494951</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>167</v>
       </c>
@@ -12736,7 +12743,7 @@
         <v>296036.26260000002</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>168</v>
       </c>
@@ -12759,7 +12766,7 @@
         <v>181435.43418800001</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>169</v>
       </c>
@@ -12782,7 +12789,7 @@
         <v>587001.93196399999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>170</v>
       </c>
@@ -12805,7 +12812,7 @@
         <v>183413.18584399999</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>171</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>177115.11062799999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>172</v>
       </c>
@@ -12851,7 +12858,7 @@
         <v>117758.853258</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>173</v>
       </c>
@@ -12874,7 +12881,7 @@
         <v>386397.785401</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>174</v>
       </c>
@@ -12897,7 +12904,7 @@
         <v>314566.80738200003</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>175</v>
       </c>
@@ -12920,7 +12927,7 @@
         <v>183443.55138799999</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>176</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>288911.72123099997</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>177</v>
       </c>
@@ -12966,7 +12973,7 @@
         <v>340358.50898300001</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>178</v>
       </c>
@@ -12989,7 +12996,7 @@
         <v>376011.53590299998</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>179</v>
       </c>
@@ -13012,7 +13019,7 @@
         <v>615757.46367199998</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>180</v>
       </c>
@@ -13035,7 +13042,7 @@
         <v>322690.3247</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>181</v>
       </c>
@@ -13058,7 +13065,7 @@
         <v>790451.30120999995</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>182</v>
       </c>
@@ -13081,7 +13088,7 @@
         <v>217532.746254</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>183</v>
       </c>
@@ -13104,7 +13111,7 @@
         <v>197053.491304</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>184</v>
       </c>
@@ -13127,7 +13134,7 @@
         <v>305656.12233300001</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>185</v>
       </c>
@@ -13150,7 +13157,7 @@
         <v>209157.497875</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>186</v>
       </c>
@@ -13173,7 +13180,7 @@
         <v>125499.49308099999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>187</v>
       </c>
@@ -13196,7 +13203,7 @@
         <v>191930.28757799999</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>188</v>
       </c>
@@ -13219,7 +13226,7 @@
         <v>164965.069525</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>189</v>
       </c>
@@ -13242,7 +13249,7 @@
         <v>273807.40020099998</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>190</v>
       </c>
@@ -13265,7 +13272,7 @@
         <v>137703.19680100001</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>191</v>
       </c>
@@ -13288,7 +13295,7 @@
         <v>159521.050869</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>192</v>
       </c>
@@ -13311,7 +13318,7 @@
         <v>358902.57082800003</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>193</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>141619.82892500001</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>194</v>
       </c>
@@ -13357,7 +13364,7 @@
         <v>270805.43220899999</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>195</v>
       </c>
@@ -13380,7 +13387,7 @@
         <v>263252.74517800001</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>196</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>350723.13257299998</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>197</v>
       </c>
@@ -13426,7 +13433,7 @@
         <v>518829.17550299998</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>198</v>
       </c>
@@ -13449,7 +13456,7 @@
         <v>152170.800407</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>199</v>
       </c>
@@ -13472,7 +13479,7 @@
         <v>140101.60056300001</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>200</v>
       </c>
@@ -13495,7 +13502,7 @@
         <v>103291.022205</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>201</v>
       </c>
@@ -13518,7 +13525,7 @@
         <v>207685.12886699999</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>202</v>
       </c>
@@ -13541,7 +13548,7 @@
         <v>227186.28148800001</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>203</v>
       </c>
@@ -13564,7 +13571,7 @@
         <v>150739.30815600001</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>204</v>
       </c>
@@ -13587,7 +13594,7 @@
         <v>632530.916784</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>205</v>
       </c>
@@ -13610,7 +13617,7 @@
         <v>540104.82346700004</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>206</v>
       </c>
@@ -13633,7 +13640,7 @@
         <v>117259.065336</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>207</v>
       </c>
@@ -13656,7 +13663,7 @@
         <v>409477.34774499998</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>208</v>
       </c>
@@ -13679,7 +13686,7 @@
         <v>579400.79675900005</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>209</v>
       </c>
@@ -13702,7 +13709,7 @@
         <v>148681.84551799999</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>210</v>
       </c>
@@ -13725,7 +13732,7 @@
         <v>585051.86756899999</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>211</v>
       </c>
@@ -13748,7 +13755,7 @@
         <v>160052.19985500001</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>212</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>124859.33564200001</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>213</v>
       </c>
@@ -13794,7 +13801,7 @@
         <v>252434.84820400001</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>214</v>
       </c>
@@ -13817,7 +13824,7 @@
         <v>825423.22590800002</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>215</v>
       </c>
@@ -13840,7 +13847,7 @@
         <v>937068.05796899996</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>216</v>
       </c>
@@ -13863,7 +13870,7 @@
         <v>610897.21341800003</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>217</v>
       </c>
@@ -13886,7 +13893,7 @@
         <v>585964.96928800002</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>218</v>
       </c>
@@ -13909,7 +13916,7 @@
         <v>309654.387162</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>219</v>
       </c>
@@ -13932,7 +13939,7 @@
         <v>215636.26431100001</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>220</v>
       </c>
@@ -13955,7 +13962,7 @@
         <v>175044.55846299999</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>221</v>
       </c>
@@ -13978,7 +13985,7 @@
         <v>571192.050666</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>222</v>
       </c>
@@ -14001,7 +14008,7 @@
         <v>231166.635626</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>223</v>
       </c>
@@ -14024,7 +14031,7 @@
         <v>408213.64041699999</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>224</v>
       </c>
@@ -14047,7 +14054,7 @@
         <v>512170.309152</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>225</v>
       </c>
@@ -14070,7 +14077,7 @@
         <v>209261.30485399999</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>226</v>
       </c>
@@ -14093,7 +14100,7 @@
         <v>154534.33486100001</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>227</v>
       </c>
@@ -14116,7 +14123,7 @@
         <v>257712.04862799999</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>228</v>
       </c>
@@ -14139,7 +14146,7 @@
         <v>279690.19312399998</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>229</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>201259.82886000001</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>230</v>
       </c>
@@ -14185,7 +14192,7 @@
         <v>855541.51910499996</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>231</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>158053.65481199999</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>232</v>
       </c>
@@ -14231,7 +14238,7 @@
         <v>125553.129892</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>233</v>
       </c>
@@ -14254,7 +14261,7 @@
         <v>357807.210471</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>234</v>
       </c>
@@ -14277,7 +14284,7 @@
         <v>477462.56150399998</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>235</v>
       </c>
@@ -14300,7 +14307,7 @@
         <v>142115.98568499999</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>236</v>
       </c>
@@ -14323,7 +14330,7 @@
         <v>148951.506203</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>237</v>
       </c>
@@ -14346,7 +14353,7 @@
         <v>182708.06097300001</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>238</v>
       </c>
@@ -14369,7 +14376,7 @@
         <v>122922.446773</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>239</v>
       </c>
@@ -14392,7 +14399,7 @@
         <v>172110.861404</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>240</v>
       </c>
@@ -14415,7 +14422,7 @@
         <v>238720.161165</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>241</v>
       </c>
@@ -14438,7 +14445,7 @@
         <v>167967.726654</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>242</v>
       </c>
@@ -14461,7 +14468,7 @@
         <v>289052.80012099998</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>243</v>
       </c>
@@ -14484,7 +14491,7 @@
         <v>607727.55133000005</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>244</v>
       </c>
@@ -14507,7 +14514,7 @@
         <v>253484.25468799999</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>245</v>
       </c>
@@ -14530,7 +14537,7 @@
         <v>475132.16367500002</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>246</v>
       </c>
@@ -14553,7 +14560,7 @@
         <v>617505.22737400001</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>247</v>
       </c>
@@ -14576,7 +14583,7 @@
         <v>250939.35637699999</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>248</v>
       </c>
@@ -14599,7 +14606,7 @@
         <v>540793.58003499999</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>249</v>
       </c>
@@ -14622,7 +14629,7 @@
         <v>224091.584455</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>250</v>
       </c>
@@ -14645,7 +14652,7 @@
         <v>335001.54282700003</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>251</v>
       </c>
@@ -14668,7 +14675,7 @@
         <v>548574.89447699999</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>252</v>
       </c>
@@ -14691,7 +14698,7 @@
         <v>178869.898808</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>253</v>
       </c>
@@ -14714,7 +14721,7 @@
         <v>723528.55987800006</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>254</v>
       </c>
@@ -14737,7 +14744,7 @@
         <v>402690.25984499999</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>255</v>
       </c>
@@ -14760,7 +14767,7 @@
         <v>277591.19321900001</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>256</v>
       </c>
@@ -14783,7 +14790,7 @@
         <v>271808.382789</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>257</v>
       </c>
@@ -14806,7 +14813,7 @@
         <v>264686.508821</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>258</v>
       </c>
@@ -14829,7 +14836,7 @@
         <v>382563.829142</v>
       </c>
     </row>
-    <row r="261" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>259</v>
       </c>
@@ -14858,7 +14865,7 @@
         <v>166235.439686</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>260</v>
       </c>
@@ -14887,7 +14894,7 @@
         <v>355133.42903100001</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>263</v>
       </c>
